--- a/EN - Engine & Powertrain/Cost/EN_A0500.xlsx
+++ b/EN - Engine & Powertrain/Cost/EN_A0500.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452" tabRatio="779"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452" tabRatio="779" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EN A0005" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="166">
   <si>
     <t>University</t>
   </si>
@@ -274,9 +274,6 @@
     <t>Hand, Loose &gt; 25.4 mm</t>
   </si>
   <si>
-    <t>Filler tube cap</t>
-  </si>
-  <si>
     <t>Fastener</t>
   </si>
   <si>
@@ -548,6 +545,15 @@
   </si>
   <si>
     <t>Clamp on tube of frame to attach the filler tube</t>
+  </si>
+  <si>
+    <t>Seal, O-Ring, Elastomer</t>
+  </si>
+  <si>
+    <t>Between the plug and the filler tube</t>
+  </si>
+  <si>
+    <t>Seal O-ring + Filler tube cap</t>
   </si>
 </sst>
 </file>
@@ -2470,10 +2476,10 @@
     <tabColor rgb="FF92D04F"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T50"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="49" zoomScalePageLayoutView="49" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="49" zoomScalePageLayoutView="49" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2515,8 +2521,8 @@
         <v>4</v>
       </c>
       <c r="N1" s="5">
-        <f>E14+N21+I36+J46+I50</f>
-        <v>202.69199448376946</v>
+        <f>E14+N22+I37+J47+I51</f>
+        <v>203.49199448376947</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2549,7 +2555,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
@@ -2559,7 +2565,7 @@
       </c>
       <c r="N4" s="8">
         <f>N1*N2</f>
-        <v>202.69199448376946</v>
+        <v>203.49199448376947</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2859,180 +2865,183 @@
         <v>40</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>47</v>
+        <v>164</v>
       </c>
       <c r="D20" s="30">
-        <v>10</v>
-      </c>
-      <c r="E20" s="33">
-        <f>106.435/10000</f>
-        <v>1.06435E-2</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>48</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
       <c r="G20" s="29"/>
       <c r="H20" s="31"/>
       <c r="I20" s="27"/>
       <c r="J20" s="21"/>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
-      <c r="M20" s="33">
+      <c r="M20" s="22">
+        <v>1</v>
+      </c>
+      <c r="N20" s="12">
+        <f>M20*D20</f>
+        <v>0.05</v>
+      </c>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="24"/>
+    </row>
+    <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="17">
+        <v>50</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="30">
+        <v>10</v>
+      </c>
+      <c r="E21" s="33">
         <f>106.435/10000</f>
         <v>1.06435E-2</v>
       </c>
-      <c r="N20" s="12">
-        <f>M20*D20</f>
+      <c r="F21" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="29"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="33">
+        <f>106.435/10000</f>
+        <v>1.06435E-2</v>
+      </c>
+      <c r="N21" s="12">
+        <f>M21*D21</f>
         <v>0.106435</v>
       </c>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-    </row>
-    <row r="21" spans="1:20" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="M21" s="15" t="s">
+      <c r="P21" s="23"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+    </row>
+    <row r="22" spans="1:20" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M22" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="N21" s="16">
-        <f>SUM(N17:N20)</f>
-        <v>24.808435000000003</v>
-      </c>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-    </row>
-    <row r="23" spans="1:20" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="N22" s="16">
+        <f>SUM(N17:N21)</f>
+        <v>24.858435000000004</v>
+      </c>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+    </row>
+    <row r="24" spans="1:20" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D24" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E24" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F24" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G24" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H24" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I24" s="9" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="37">
-        <v>10</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="40">
-        <v>0.15</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="41">
-        <v>9.83</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10">
-        <v>1</v>
-      </c>
-      <c r="I24" s="12">
-        <f>D24*F24*H24</f>
-        <v>1.4744999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="37">
+        <v>10</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="40">
+        <v>0.15</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="41">
+        <v>9.83</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10">
+        <v>1</v>
+      </c>
+      <c r="I25" s="12">
+        <f>D25*F25*H25</f>
+        <v>1.4744999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="37">
         <v>20</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B26" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C26" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="40">
+      <c r="D26" s="40">
         <v>5.25</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E26" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F26" s="33">
         <f>106.435/10000</f>
         <v>1.06435E-2</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10">
-        <v>1</v>
-      </c>
-      <c r="I25" s="12">
-        <f>D25*F25*H25</f>
-        <v>5.5878375000000001E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37">
-        <v>30</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="40">
-        <v>0.06</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="41">
-        <v>4</v>
-      </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10">
         <v>1</v>
       </c>
       <c r="I26" s="12">
         <f>D26*F26*H26</f>
-        <v>0.24</v>
+        <v>5.5878375000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="37">
-        <v>40</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>59</v>
+        <v>30</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="43">
-        <v>0.75</v>
-      </c>
-      <c r="E27" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="40">
+        <v>0.06</v>
+      </c>
+      <c r="E27" s="38" t="s">
         <v>50</v>
       </c>
       <c r="F27" s="41">
@@ -3043,78 +3052,78 @@
         <v>1</v>
       </c>
       <c r="I27" s="12">
-        <f t="shared" ref="I27:I35" si="1">D27*F27*H27</f>
-        <v>3</v>
+        <f>D27*F27*H27</f>
+        <v>0.24</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="37">
-        <v>50</v>
-      </c>
-      <c r="B28" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="40">
-        <v>0.38</v>
+        <v>40</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="43">
+        <v>0.75</v>
       </c>
       <c r="E28" s="37" t="s">
         <v>50</v>
       </c>
       <c r="F28" s="41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10">
         <v>1</v>
       </c>
       <c r="I28" s="12">
+        <f t="shared" ref="I28:I36" si="1">D28*F28*H28</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="37">
+        <v>50</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="40">
+        <v>0.38</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="41">
+        <v>1</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10">
+        <v>1</v>
+      </c>
+      <c r="I29" s="12">
         <f t="shared" si="1"/>
         <v>0.38</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="37">
-        <v>60</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="43">
-        <v>0.75</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" s="41">
-        <v>4</v>
-      </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10">
-        <v>1</v>
-      </c>
-      <c r="I29" s="12">
-        <f>D29*F29*H29</f>
-        <v>3</v>
-      </c>
-    </row>
     <row r="30" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="37">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>63</v>
       </c>
       <c r="D30" s="43">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="E30" s="37" t="s">
         <v>50</v>
@@ -3127,29 +3136,28 @@
         <v>1</v>
       </c>
       <c r="I30" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L30" s="35"/>
+        <f>D30*F30*H30</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="37">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="D31" s="43">
-        <v>0.06</v>
+        <v>0.25</v>
       </c>
       <c r="E31" s="37" t="s">
         <v>50</v>
       </c>
       <c r="F31" s="41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10">
@@ -3157,27 +3165,28 @@
       </c>
       <c r="I31" s="12">
         <f t="shared" si="1"/>
-        <v>0.06</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L31" s="35"/>
     </row>
     <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="37">
-        <v>110</v>
-      </c>
-      <c r="B32" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="40">
-        <v>0.5</v>
+        <v>90</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="43">
+        <v>0.06</v>
       </c>
       <c r="E32" s="37" t="s">
         <v>50</v>
       </c>
       <c r="F32" s="41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10">
@@ -3185,18 +3194,18 @@
       </c>
       <c r="I32" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="37">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>66</v>
       </c>
       <c r="D33" s="40">
         <v>0.5</v>
@@ -3205,7 +3214,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10">
@@ -3213,21 +3222,21 @@
       </c>
       <c r="I33" s="12">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="37">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D34" s="40">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E34" s="37" t="s">
         <v>50</v>
@@ -3241,21 +3250,21 @@
       </c>
       <c r="I34" s="12">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="37">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>70</v>
       </c>
       <c r="D35" s="40">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="E35" s="37" t="s">
         <v>50</v>
@@ -3269,183 +3278,182 @@
       </c>
       <c r="I35" s="12">
         <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="37">
+        <v>140</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" s="40">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H36" s="15" t="s">
+      <c r="E36" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="41">
+        <v>2</v>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10">
+        <v>1</v>
+      </c>
+      <c r="I36" s="12">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I36" s="45">
-        <f>SUM(I24:I35)</f>
-        <v>11.710378374999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
+      <c r="I37" s="45">
+        <f>SUM(I25:I36)</f>
+        <v>12.460378374999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="9" t="s">
+      <c r="B39" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D39" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E39" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F39" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G39" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H39" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="I39" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="J39" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M38" s="46"/>
-    </row>
-    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10">
-        <v>10</v>
-      </c>
-      <c r="B39" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="D39" s="48">
-        <v>0.04</v>
-      </c>
-      <c r="E39" s="49">
-        <v>6</v>
-      </c>
-      <c r="F39" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="50">
-        <v>4</v>
-      </c>
-      <c r="J39" s="12">
-        <f t="shared" ref="J39:J45" si="2">I39*D39</f>
-        <v>0.16</v>
-      </c>
+      <c r="M39" s="46"/>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
+        <v>10</v>
+      </c>
+      <c r="B40" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" s="48">
+        <v>0.04</v>
+      </c>
+      <c r="E40" s="49">
+        <v>6</v>
+      </c>
+      <c r="F40" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="50">
+        <v>4</v>
+      </c>
+      <c r="J40" s="12">
+        <f t="shared" ref="J40:J46" si="2">I40*D40</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10">
         <v>20</v>
       </c>
-      <c r="B40" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="D40" s="48">
+      <c r="B41" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="48">
         <v>0.01</v>
       </c>
-      <c r="E40" s="37">
+      <c r="E41" s="37">
         <v>6</v>
       </c>
-      <c r="F40" s="51" t="s">
+      <c r="F41" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="G40" s="37"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="50">
+      <c r="G41" s="37"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="50">
         <v>8</v>
       </c>
-      <c r="J40" s="12">
+      <c r="J41" s="12">
         <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10">
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10">
         <v>30</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B42" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="40">
+      <c r="D42" s="40">
         <v>0.04</v>
       </c>
-      <c r="E41" s="37">
+      <c r="E42" s="37">
         <v>6</v>
       </c>
-      <c r="F41" s="53" t="s">
+      <c r="F42" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="G41" s="37">
+      <c r="G42" s="37">
         <v>30</v>
       </c>
-      <c r="H41" s="42" t="s">
+      <c r="H42" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="I41" s="50">
+      <c r="I42" s="50">
         <v>4</v>
       </c>
-      <c r="J41" s="12">
+      <c r="J42" s="12">
         <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10">
-        <v>40</v>
-      </c>
-      <c r="B42" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="40">
-        <v>0.03</v>
-      </c>
-      <c r="E42" s="37">
-        <v>6</v>
-      </c>
-      <c r="F42" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" s="37"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="54">
-        <v>5</v>
-      </c>
-      <c r="J42" s="12">
-        <f t="shared" si="2"/>
-        <v>0.15</v>
-      </c>
-    </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C43" s="44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D43" s="40">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="E43" s="37">
         <v>6</v>
@@ -3460,55 +3468,54 @@
       </c>
       <c r="J43" s="12">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
-        <v>60</v>
-      </c>
-      <c r="B44" s="52" t="s">
-        <v>80</v>
+        <v>50</v>
+      </c>
+      <c r="B44" s="47" t="s">
+        <v>74</v>
       </c>
       <c r="C44" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="D44" s="48">
-        <f>0.004*E44+0.5</f>
-        <v>0.72</v>
+        <v>78</v>
+      </c>
+      <c r="D44" s="40">
+        <v>0.01</v>
       </c>
       <c r="E44" s="37">
-        <v>55</v>
-      </c>
-      <c r="F44" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="53" t="s">
         <v>43</v>
       </c>
       <c r="G44" s="37"/>
       <c r="H44" s="42"/>
-      <c r="I44" s="50">
-        <v>1</v>
+      <c r="I44" s="54">
+        <v>5</v>
       </c>
       <c r="J44" s="12">
-        <f t="shared" ref="J44" si="3">I44*D44</f>
-        <v>0.72</v>
+        <f t="shared" si="2"/>
+        <v>0.05</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B45" s="52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C45" s="44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D45" s="48">
         <f>0.004*E45+0.5</f>
-        <v>0.56000000000000005</v>
+        <v>0.72</v>
       </c>
       <c r="E45" s="37">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="F45" s="51" t="s">
         <v>43</v>
@@ -3519,91 +3526,121 @@
         <v>1</v>
       </c>
       <c r="J45" s="12">
+        <f t="shared" ref="J45" si="3">I45*D45</f>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10">
+        <v>70</v>
+      </c>
+      <c r="B46" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" s="48">
+        <f>0.004*E46+0.5</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E46" s="37">
+        <v>15</v>
+      </c>
+      <c r="F46" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46" s="37"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="50">
+        <v>1</v>
+      </c>
+      <c r="J46" s="12">
         <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I46" s="15" t="s">
+    <row r="47" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I47" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J46" s="16">
-        <f>SUM(J39:J45)</f>
+      <c r="J47" s="16">
+        <f>SUM(J40:J46)</f>
         <v>1.8800000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B49" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" s="9" t="s">
+      <c r="H49" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="I49" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="37">
+        <v>10</v>
+      </c>
+      <c r="B50" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="I48" s="9" t="s">
+      <c r="C50" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="43">
+        <v>500</v>
+      </c>
+      <c r="E50" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="F50" s="37">
+        <v>8</v>
+      </c>
+      <c r="G50" s="37">
+        <v>3000</v>
+      </c>
+      <c r="H50" s="37">
+        <v>1</v>
+      </c>
+      <c r="I50" s="55">
+        <f>D50*F50/G50*H50</f>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="37">
-        <v>10</v>
-      </c>
-      <c r="B49" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" s="43">
-        <v>500</v>
-      </c>
-      <c r="E49" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="F49" s="37">
-        <v>8</v>
-      </c>
-      <c r="G49" s="37">
-        <v>3000</v>
-      </c>
-      <c r="H49" s="37">
-        <v>1</v>
-      </c>
-      <c r="I49" s="55">
-        <f>D49*F49/G49*H49</f>
-        <v>1.3333333333333333</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I50" s="56">
-        <f>SUM(I49:I49)</f>
+      <c r="I51" s="56">
+        <f>SUM(I50:I50)</f>
         <v>1.3333333333333333</v>
       </c>
     </row>
@@ -3633,8 +3670,8 @@
   </sheetPr>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="49" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="49" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3698,7 +3735,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" s="60" t="s">
         <v>10</v>
@@ -3751,7 +3788,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J5" s="57" t="s">
         <v>16</v>
@@ -3817,10 +3854,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>87</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>88</v>
       </c>
       <c r="D10" s="30">
         <v>4.2</v>
@@ -3830,7 +3867,7 @@
         <v>3.7425600000000006</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G10" s="29">
         <v>2.5</v>
@@ -3839,7 +3876,7 @@
         <v>43</v>
       </c>
       <c r="I10" s="64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J10" s="65">
         <f>460*1200/1000000</f>
@@ -3865,10 +3902,10 @@
         <v>20</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="30">
         <v>4.2</v>
@@ -3878,7 +3915,7 @@
         <v>0.10258079128948773</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G11" s="29">
         <v>2</v>
@@ -3887,7 +3924,7 @@
         <v>43</v>
       </c>
       <c r="I11" s="64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J11" s="65">
         <f>(PI()*22.5*22.5-PI()*20.5*20.5)/1000000</f>
@@ -3912,10 +3949,10 @@
         <v>30</v>
       </c>
       <c r="B12" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="29" t="s">
         <v>92</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>93</v>
       </c>
       <c r="D12" s="30">
         <v>1.85</v>
@@ -3983,10 +4020,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="75" t="s">
         <v>94</v>
-      </c>
-      <c r="C16" s="75" t="s">
-        <v>95</v>
       </c>
       <c r="D16" s="76">
         <v>1.3</v>
@@ -3998,7 +4035,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H16" s="75">
         <v>1</v>
@@ -4013,10 +4050,10 @@
         <v>20</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D17" s="40">
         <v>0.01</v>
@@ -4028,7 +4065,7 @@
         <v>178</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H17" s="41">
         <v>1</v>
@@ -4043,10 +4080,10 @@
         <v>30</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D18" s="40">
         <v>0.01</v>
@@ -4058,7 +4095,7 @@
         <v>128</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H18" s="41">
         <v>1</v>
@@ -4073,10 +4110,10 @@
         <v>40</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D19" s="40">
         <v>0.01</v>
@@ -4088,7 +4125,7 @@
         <v>180</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H19" s="41">
         <v>1</v>
@@ -4103,10 +4140,10 @@
         <v>50</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D20" s="40">
         <v>0.01</v>
@@ -4118,7 +4155,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H20" s="41">
         <v>1</v>
@@ -4133,16 +4170,16 @@
         <v>60</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="40">
         <v>0.25</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21" s="77">
         <v>1</v>
@@ -4159,16 +4196,16 @@
         <v>70</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D22" s="40">
         <v>0.25</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F22" s="77">
         <v>2</v>
@@ -4185,16 +4222,16 @@
         <v>80</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D23" s="40">
         <v>1.25</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F23" s="77">
         <v>1</v>
@@ -4211,10 +4248,10 @@
         <v>90</v>
       </c>
       <c r="B24" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="41" t="s">
         <v>100</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>101</v>
       </c>
       <c r="D24" s="40">
         <v>0.15</v>
@@ -4240,7 +4277,7 @@
         <v>53</v>
       </c>
       <c r="C25" s="75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D25" s="40">
         <v>0.15</v>
@@ -4277,7 +4314,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="61" t="s">
         <v>31</v>
@@ -4292,10 +4329,10 @@
         <v>22</v>
       </c>
       <c r="G28" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="61" t="s">
         <v>82</v>
-      </c>
-      <c r="H28" s="61" t="s">
-        <v>83</v>
       </c>
       <c r="I28" s="61" t="s">
         <v>23</v>
@@ -4306,14 +4343,14 @@
         <v>10</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="37"/>
       <c r="D29" s="43">
         <v>500</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F29" s="37">
         <v>10</v>
@@ -4372,7 +4409,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4397,9 +4434,7 @@
   </sheetPr>
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="49" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="49" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4511,7 +4546,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5" s="57" t="s">
         <v>16</v>
@@ -4579,10 +4614,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="86" t="s">
         <v>110</v>
-      </c>
-      <c r="C10" s="86" t="s">
-        <v>111</v>
       </c>
       <c r="D10" s="40">
         <v>4.2</v>
@@ -4592,12 +4627,12 @@
         <v>7.9874993217520493E-2</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="19"/>
       <c r="I10" s="64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J10" s="28">
         <f>PI()*50*50/4/1000000</f>
@@ -4622,7 +4657,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" s="86"/>
       <c r="D11" s="40">
@@ -4649,7 +4684,7 @@
         <v>30</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="93"/>
       <c r="D12" s="40">
@@ -4683,10 +4718,10 @@
         <v>40</v>
       </c>
       <c r="B13" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="94" t="s">
         <v>133</v>
-      </c>
-      <c r="C13" s="94" t="s">
-        <v>134</v>
       </c>
       <c r="D13" s="40">
         <f>0.032*E13*G13+1.33</f>
@@ -4759,7 +4794,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="41"/>
       <c r="D17" s="40">
@@ -4783,20 +4818,20 @@
         <v>20</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="37"/>
       <c r="D18" s="40">
         <v>0.04</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F18" s="77">
         <v>12</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H18" s="41">
         <v>1</v>
@@ -4811,7 +4846,7 @@
         <v>30</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19" s="37"/>
       <c r="D19" s="40">
@@ -4824,7 +4859,7 @@
         <v>50</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H19" s="41">
         <v>1</v>
@@ -4839,16 +4874,16 @@
         <v>40</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D20" s="40">
         <v>0.35</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F20" s="77">
         <v>1</v>
@@ -4865,10 +4900,10 @@
         <v>50</v>
       </c>
       <c r="B21" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="44" t="s">
         <v>121</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>122</v>
       </c>
       <c r="D21" s="40">
         <v>0.13</v>
@@ -5033,7 +5068,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J5" s="57" t="s">
         <v>16</v>
@@ -5099,10 +5134,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="30">
         <f>4.2</f>
@@ -5113,12 +5148,12 @@
         <v>8.2431782400000042E-2</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="31"/>
       <c r="I10" s="64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J10" s="66">
         <f>(3.14*22.5*22.5-3.14*21.5*21.5)/1000000</f>
@@ -5143,10 +5178,10 @@
         <v>20</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D11" s="30">
         <f>4.2</f>
@@ -5157,7 +5192,7 @@
         <v>1.6690732800000014E-2</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="31"/>
@@ -5185,10 +5220,10 @@
         <v>30</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D12" s="30">
         <f>4.2</f>
@@ -5198,12 +5233,12 @@
         <v>1E-3</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="31"/>
       <c r="I12" s="64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J12" s="66"/>
       <c r="K12" s="69"/>
@@ -5224,7 +5259,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D13" s="30">
         <f>0.47*E13</f>
@@ -5240,7 +5275,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="H13" s="68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I13" s="92"/>
       <c r="J13" s="66"/>
@@ -5262,7 +5297,7 @@
         <v>44</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D14" s="30">
         <f>0.47*E14</f>
@@ -5278,7 +5313,7 @@
         <v>0.11</v>
       </c>
       <c r="H14" s="68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I14" s="92"/>
       <c r="J14" s="66"/>
@@ -5335,10 +5370,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" s="75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D18" s="40">
         <v>0.15</v>
@@ -5352,7 +5387,7 @@
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
       <c r="I18" s="55">
-        <f>IF(H18="",D18*F18,D18*F18*H18)</f>
+        <f t="shared" ref="I18:I26" si="0">IF(H18="",D18*F18,D18*F18*H18)</f>
         <v>1.2</v>
       </c>
     </row>
@@ -5361,10 +5396,10 @@
         <v>20</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D19" s="40">
         <v>1.3</v>
@@ -5378,7 +5413,7 @@
       <c r="G19" s="38"/>
       <c r="H19" s="41"/>
       <c r="I19" s="55">
-        <f>IF(H19="",D19*F19,D19*F19*H19)</f>
+        <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
     </row>
@@ -5387,16 +5422,16 @@
         <v>30</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D20" s="40">
         <v>0.35</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F20" s="41">
         <v>1</v>
@@ -5404,7 +5439,7 @@
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
       <c r="I20" s="55">
-        <f>IF(H20="",D20*F20,D20*F20*H20)</f>
+        <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
     </row>
@@ -5413,10 +5448,10 @@
         <v>40</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D21" s="40">
         <v>1.3</v>
@@ -5430,7 +5465,7 @@
       <c r="G21" s="38"/>
       <c r="H21" s="41"/>
       <c r="I21" s="55">
-        <f>IF(H21="",D21*F21,D21*F21*H21)</f>
+        <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
     </row>
@@ -5439,16 +5474,16 @@
         <v>50</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D22" s="40">
         <v>0.35</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F22" s="41">
         <v>1</v>
@@ -5456,7 +5491,7 @@
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
       <c r="I22" s="55">
-        <f>IF(H22="",D22*F22,D22*F22*H22)</f>
+        <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
     </row>
@@ -5465,10 +5500,10 @@
         <v>60</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D23" s="40">
         <v>0.1</v>
@@ -5480,13 +5515,13 @@
         <v>1</v>
       </c>
       <c r="G23" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H23" s="41">
         <v>1</v>
       </c>
       <c r="I23" s="55">
-        <f>IF(H23="",D23*F23,D23*F23*H23)</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
@@ -5495,10 +5530,10 @@
         <v>70</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D24" s="40">
         <f>1.3</f>
@@ -5513,7 +5548,7 @@
       <c r="G24" s="38"/>
       <c r="H24" s="41"/>
       <c r="I24" s="55">
-        <f>IF(H24="",D24*F24,D24*F24*H24)</f>
+        <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
     </row>
@@ -5522,16 +5557,16 @@
         <v>80</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D25" s="40">
         <v>0.35</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F25" s="41">
         <v>2</v>
@@ -5539,7 +5574,7 @@
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
       <c r="I25" s="55">
-        <f>IF(H25="",D25*F25,D25*F25*H25)</f>
+        <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
     </row>
@@ -5551,7 +5586,7 @@
         <v>53</v>
       </c>
       <c r="C26" s="75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D26" s="40">
         <v>0.15</v>
@@ -5565,7 +5600,7 @@
       <c r="G26" s="41"/>
       <c r="H26" s="41"/>
       <c r="I26" s="55">
-        <f>IF(H26="",D26*F26,D26*F26*H26)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
@@ -5574,10 +5609,10 @@
         <v>100</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C27" s="75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D27" s="40">
         <v>0.06</v>
@@ -5591,7 +5626,7 @@
       <c r="G27" s="41"/>
       <c r="H27" s="41"/>
       <c r="I27" s="55">
-        <f t="shared" ref="I27:I29" si="0">IF(H27="",D27*F27,D27*F27*H27)</f>
+        <f t="shared" ref="I27:I29" si="1">IF(H27="",D27*F27,D27*F27*H27)</f>
         <v>0.24</v>
       </c>
     </row>
@@ -5600,10 +5635,10 @@
         <v>110</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C28" s="75" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D28" s="40">
         <v>0.19</v>
@@ -5617,7 +5652,7 @@
       <c r="G28" s="41"/>
       <c r="H28" s="41"/>
       <c r="I28" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1400000000000001</v>
       </c>
     </row>
@@ -5629,7 +5664,7 @@
         <v>65</v>
       </c>
       <c r="C29" s="44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D29" s="40">
         <v>0.5</v>
@@ -5643,7 +5678,7 @@
       <c r="G29" s="38"/>
       <c r="H29" s="41"/>
       <c r="I29" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -5661,7 +5696,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" s="61" t="s">
         <v>31</v>
@@ -5693,10 +5728,10 @@
         <v>10</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D33" s="40">
         <f>0.004*E33+0.5</f>
@@ -5723,10 +5758,10 @@
         <v>20</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D34" s="40">
         <f>0.004*E34+0.5</f>
@@ -5753,10 +5788,10 @@
         <v>30</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D35" s="40">
         <f>0.004*E35+0.5</f>
@@ -5796,7 +5831,7 @@
         <v>19</v>
       </c>
       <c r="B38" s="61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="61" t="s">
         <v>31</v>
@@ -5811,10 +5846,10 @@
         <v>22</v>
       </c>
       <c r="G38" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38" s="61" t="s">
         <v>82</v>
-      </c>
-      <c r="H38" s="61" t="s">
-        <v>83</v>
       </c>
       <c r="I38" s="61" t="s">
         <v>23</v>
@@ -5825,14 +5860,14 @@
         <v>10</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" s="37"/>
       <c r="D39" s="43">
         <v>500</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F39" s="37">
         <v>6</v>
@@ -5949,7 +5984,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D2" s="60" t="s">
         <v>10</v>
@@ -6001,7 +6036,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J5" s="57" t="s">
         <v>16</v>
@@ -6067,7 +6102,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="30">
@@ -6078,12 +6113,12 @@
         <v>1.4836500000000001E-2</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="31"/>
       <c r="I10" s="64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J10" s="66">
         <f>30*42/1000000</f>
@@ -6147,7 +6182,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="41"/>
       <c r="D14" s="40">
@@ -6173,7 +6208,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="40">
@@ -6186,7 +6221,7 @@
         <v>13.5</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H15" s="41">
         <v>3</v>
@@ -6238,7 +6273,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -6328,7 +6363,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D2" s="60" t="s">
         <v>10</v>
@@ -6380,7 +6415,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J5" s="57" t="s">
         <v>16</v>
@@ -6446,7 +6481,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="30">
@@ -6457,12 +6492,12 @@
         <v>2.2608000000000003E-2</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="31"/>
       <c r="I10" s="64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J10" s="66">
         <f>48*30/1000000</f>
@@ -6526,7 +6561,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="41"/>
       <c r="D14" s="40">
@@ -6552,7 +6587,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="40">
@@ -6565,7 +6600,7 @@
         <v>17.8</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H15" s="41">
         <v>3</v>
@@ -6617,7 +6652,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/EN - Engine & Powertrain/Cost/EN_A0500.xlsx
+++ b/EN - Engine & Powertrain/Cost/EN_A0500.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452" tabRatio="779" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452" tabRatio="779" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="EN A0005" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="166">
   <si>
     <t>University</t>
   </si>
@@ -675,7 +675,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -690,13 +690,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFCCFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
+        <fgColor rgb="FFD8E4BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,7 +788,7 @@
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -814,7 +820,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -860,15 +865,15 @@
     <xf numFmtId="37" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="171" fontId="3" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -884,10 +889,10 @@
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -896,13 +901,11 @@
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="4" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="37" fontId="3" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -912,7 +915,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -920,11 +922,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -942,6 +958,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD8E4BC"/>
+      <color rgb="FFD8FFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1735,475 +1757,475 @@
       <sheetName val="WT 03003"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
-      <sheetData sheetId="51" refreshError="1"/>
-      <sheetData sheetId="52" refreshError="1"/>
-      <sheetData sheetId="53" refreshError="1"/>
-      <sheetData sheetId="54" refreshError="1"/>
-      <sheetData sheetId="55" refreshError="1"/>
-      <sheetData sheetId="56" refreshError="1"/>
-      <sheetData sheetId="57" refreshError="1"/>
-      <sheetData sheetId="58" refreshError="1"/>
-      <sheetData sheetId="59" refreshError="1"/>
-      <sheetData sheetId="60" refreshError="1"/>
-      <sheetData sheetId="61" refreshError="1"/>
-      <sheetData sheetId="62" refreshError="1"/>
-      <sheetData sheetId="63" refreshError="1"/>
-      <sheetData sheetId="64" refreshError="1"/>
-      <sheetData sheetId="65" refreshError="1"/>
-      <sheetData sheetId="66" refreshError="1"/>
-      <sheetData sheetId="67" refreshError="1"/>
-      <sheetData sheetId="68" refreshError="1"/>
-      <sheetData sheetId="69" refreshError="1"/>
-      <sheetData sheetId="70" refreshError="1"/>
-      <sheetData sheetId="71" refreshError="1"/>
-      <sheetData sheetId="72" refreshError="1"/>
-      <sheetData sheetId="73" refreshError="1"/>
-      <sheetData sheetId="74" refreshError="1"/>
-      <sheetData sheetId="75" refreshError="1"/>
-      <sheetData sheetId="76" refreshError="1"/>
-      <sheetData sheetId="77" refreshError="1"/>
-      <sheetData sheetId="78" refreshError="1"/>
-      <sheetData sheetId="79" refreshError="1"/>
-      <sheetData sheetId="80" refreshError="1"/>
-      <sheetData sheetId="81" refreshError="1"/>
-      <sheetData sheetId="82" refreshError="1"/>
-      <sheetData sheetId="83" refreshError="1"/>
-      <sheetData sheetId="84" refreshError="1"/>
-      <sheetData sheetId="85" refreshError="1"/>
-      <sheetData sheetId="86" refreshError="1"/>
-      <sheetData sheetId="87" refreshError="1"/>
-      <sheetData sheetId="88" refreshError="1"/>
-      <sheetData sheetId="89" refreshError="1"/>
-      <sheetData sheetId="90" refreshError="1"/>
-      <sheetData sheetId="91" refreshError="1"/>
-      <sheetData sheetId="92" refreshError="1"/>
-      <sheetData sheetId="93" refreshError="1"/>
-      <sheetData sheetId="94" refreshError="1"/>
-      <sheetData sheetId="95" refreshError="1"/>
-      <sheetData sheetId="96" refreshError="1"/>
-      <sheetData sheetId="97" refreshError="1"/>
-      <sheetData sheetId="98" refreshError="1"/>
-      <sheetData sheetId="99" refreshError="1"/>
-      <sheetData sheetId="100" refreshError="1"/>
-      <sheetData sheetId="101" refreshError="1"/>
-      <sheetData sheetId="102" refreshError="1"/>
-      <sheetData sheetId="103" refreshError="1"/>
-      <sheetData sheetId="104" refreshError="1"/>
-      <sheetData sheetId="105" refreshError="1"/>
-      <sheetData sheetId="106" refreshError="1"/>
-      <sheetData sheetId="107" refreshError="1"/>
-      <sheetData sheetId="108" refreshError="1"/>
-      <sheetData sheetId="109" refreshError="1"/>
-      <sheetData sheetId="110" refreshError="1"/>
-      <sheetData sheetId="111" refreshError="1"/>
-      <sheetData sheetId="112" refreshError="1"/>
-      <sheetData sheetId="113" refreshError="1"/>
-      <sheetData sheetId="114" refreshError="1"/>
-      <sheetData sheetId="115" refreshError="1"/>
-      <sheetData sheetId="116" refreshError="1"/>
-      <sheetData sheetId="117" refreshError="1"/>
-      <sheetData sheetId="118" refreshError="1"/>
-      <sheetData sheetId="119" refreshError="1"/>
-      <sheetData sheetId="120" refreshError="1"/>
-      <sheetData sheetId="121" refreshError="1"/>
-      <sheetData sheetId="122" refreshError="1"/>
-      <sheetData sheetId="123" refreshError="1"/>
-      <sheetData sheetId="124" refreshError="1"/>
-      <sheetData sheetId="125" refreshError="1"/>
-      <sheetData sheetId="126" refreshError="1"/>
-      <sheetData sheetId="127" refreshError="1"/>
-      <sheetData sheetId="128" refreshError="1"/>
-      <sheetData sheetId="129" refreshError="1"/>
-      <sheetData sheetId="130" refreshError="1"/>
-      <sheetData sheetId="131" refreshError="1"/>
-      <sheetData sheetId="132" refreshError="1"/>
-      <sheetData sheetId="133" refreshError="1"/>
-      <sheetData sheetId="134" refreshError="1"/>
-      <sheetData sheetId="135" refreshError="1"/>
-      <sheetData sheetId="136" refreshError="1"/>
-      <sheetData sheetId="137" refreshError="1"/>
-      <sheetData sheetId="138" refreshError="1"/>
-      <sheetData sheetId="139" refreshError="1"/>
-      <sheetData sheetId="140" refreshError="1"/>
-      <sheetData sheetId="141" refreshError="1"/>
-      <sheetData sheetId="142" refreshError="1"/>
-      <sheetData sheetId="143" refreshError="1"/>
-      <sheetData sheetId="144" refreshError="1"/>
-      <sheetData sheetId="145" refreshError="1"/>
-      <sheetData sheetId="146" refreshError="1"/>
-      <sheetData sheetId="147" refreshError="1"/>
-      <sheetData sheetId="148" refreshError="1"/>
-      <sheetData sheetId="149" refreshError="1"/>
-      <sheetData sheetId="150" refreshError="1"/>
-      <sheetData sheetId="151" refreshError="1"/>
-      <sheetData sheetId="152" refreshError="1"/>
-      <sheetData sheetId="153" refreshError="1"/>
-      <sheetData sheetId="154" refreshError="1"/>
-      <sheetData sheetId="155" refreshError="1"/>
-      <sheetData sheetId="156" refreshError="1"/>
-      <sheetData sheetId="157" refreshError="1"/>
-      <sheetData sheetId="158" refreshError="1"/>
-      <sheetData sheetId="159" refreshError="1"/>
-      <sheetData sheetId="160" refreshError="1"/>
-      <sheetData sheetId="161" refreshError="1"/>
-      <sheetData sheetId="162" refreshError="1"/>
-      <sheetData sheetId="163" refreshError="1"/>
-      <sheetData sheetId="164" refreshError="1"/>
-      <sheetData sheetId="165" refreshError="1"/>
-      <sheetData sheetId="166" refreshError="1"/>
-      <sheetData sheetId="167" refreshError="1"/>
-      <sheetData sheetId="168" refreshError="1"/>
-      <sheetData sheetId="169" refreshError="1"/>
-      <sheetData sheetId="170" refreshError="1"/>
-      <sheetData sheetId="171" refreshError="1"/>
-      <sheetData sheetId="172" refreshError="1"/>
-      <sheetData sheetId="173" refreshError="1"/>
-      <sheetData sheetId="174" refreshError="1"/>
-      <sheetData sheetId="175" refreshError="1"/>
-      <sheetData sheetId="176" refreshError="1"/>
-      <sheetData sheetId="177" refreshError="1"/>
-      <sheetData sheetId="178" refreshError="1"/>
-      <sheetData sheetId="179" refreshError="1"/>
-      <sheetData sheetId="180" refreshError="1"/>
-      <sheetData sheetId="181" refreshError="1"/>
-      <sheetData sheetId="182" refreshError="1"/>
-      <sheetData sheetId="183" refreshError="1"/>
-      <sheetData sheetId="184" refreshError="1"/>
-      <sheetData sheetId="185" refreshError="1"/>
-      <sheetData sheetId="186" refreshError="1"/>
-      <sheetData sheetId="187" refreshError="1"/>
-      <sheetData sheetId="188" refreshError="1"/>
-      <sheetData sheetId="189" refreshError="1"/>
-      <sheetData sheetId="190" refreshError="1"/>
-      <sheetData sheetId="191" refreshError="1"/>
-      <sheetData sheetId="192" refreshError="1"/>
-      <sheetData sheetId="193" refreshError="1"/>
-      <sheetData sheetId="194" refreshError="1"/>
-      <sheetData sheetId="195" refreshError="1"/>
-      <sheetData sheetId="196" refreshError="1"/>
-      <sheetData sheetId="197" refreshError="1"/>
-      <sheetData sheetId="198" refreshError="1"/>
-      <sheetData sheetId="199" refreshError="1"/>
-      <sheetData sheetId="200" refreshError="1"/>
-      <sheetData sheetId="201" refreshError="1"/>
-      <sheetData sheetId="202" refreshError="1"/>
-      <sheetData sheetId="203" refreshError="1"/>
-      <sheetData sheetId="204" refreshError="1"/>
-      <sheetData sheetId="205" refreshError="1"/>
-      <sheetData sheetId="206" refreshError="1"/>
-      <sheetData sheetId="207" refreshError="1"/>
-      <sheetData sheetId="208" refreshError="1"/>
-      <sheetData sheetId="209" refreshError="1"/>
-      <sheetData sheetId="210" refreshError="1"/>
-      <sheetData sheetId="211" refreshError="1"/>
-      <sheetData sheetId="212" refreshError="1"/>
-      <sheetData sheetId="213" refreshError="1"/>
-      <sheetData sheetId="214" refreshError="1"/>
-      <sheetData sheetId="215" refreshError="1"/>
-      <sheetData sheetId="216" refreshError="1"/>
-      <sheetData sheetId="217" refreshError="1"/>
-      <sheetData sheetId="218" refreshError="1"/>
-      <sheetData sheetId="219" refreshError="1"/>
-      <sheetData sheetId="220" refreshError="1"/>
-      <sheetData sheetId="221" refreshError="1"/>
-      <sheetData sheetId="222" refreshError="1"/>
-      <sheetData sheetId="223" refreshError="1"/>
-      <sheetData sheetId="224" refreshError="1"/>
-      <sheetData sheetId="225" refreshError="1"/>
-      <sheetData sheetId="226" refreshError="1"/>
-      <sheetData sheetId="227" refreshError="1"/>
-      <sheetData sheetId="228" refreshError="1"/>
-      <sheetData sheetId="229" refreshError="1"/>
-      <sheetData sheetId="230" refreshError="1"/>
-      <sheetData sheetId="231" refreshError="1"/>
-      <sheetData sheetId="232" refreshError="1"/>
-      <sheetData sheetId="233" refreshError="1"/>
-      <sheetData sheetId="234" refreshError="1"/>
-      <sheetData sheetId="235" refreshError="1"/>
-      <sheetData sheetId="236" refreshError="1"/>
-      <sheetData sheetId="237" refreshError="1"/>
-      <sheetData sheetId="238" refreshError="1"/>
-      <sheetData sheetId="239" refreshError="1"/>
-      <sheetData sheetId="240" refreshError="1"/>
-      <sheetData sheetId="241" refreshError="1"/>
-      <sheetData sheetId="242" refreshError="1"/>
-      <sheetData sheetId="243" refreshError="1"/>
-      <sheetData sheetId="244" refreshError="1"/>
-      <sheetData sheetId="245" refreshError="1"/>
-      <sheetData sheetId="246" refreshError="1"/>
-      <sheetData sheetId="247" refreshError="1"/>
-      <sheetData sheetId="248" refreshError="1"/>
-      <sheetData sheetId="249" refreshError="1"/>
-      <sheetData sheetId="250" refreshError="1"/>
-      <sheetData sheetId="251" refreshError="1"/>
-      <sheetData sheetId="252" refreshError="1"/>
-      <sheetData sheetId="253" refreshError="1"/>
-      <sheetData sheetId="254" refreshError="1"/>
-      <sheetData sheetId="255" refreshError="1"/>
-      <sheetData sheetId="256" refreshError="1"/>
-      <sheetData sheetId="257" refreshError="1"/>
-      <sheetData sheetId="258" refreshError="1"/>
-      <sheetData sheetId="259" refreshError="1"/>
-      <sheetData sheetId="260" refreshError="1"/>
-      <sheetData sheetId="261" refreshError="1"/>
-      <sheetData sheetId="262" refreshError="1"/>
-      <sheetData sheetId="263" refreshError="1"/>
-      <sheetData sheetId="264" refreshError="1"/>
-      <sheetData sheetId="265" refreshError="1"/>
-      <sheetData sheetId="266" refreshError="1"/>
-      <sheetData sheetId="267" refreshError="1"/>
-      <sheetData sheetId="268" refreshError="1"/>
-      <sheetData sheetId="269" refreshError="1"/>
-      <sheetData sheetId="270" refreshError="1"/>
-      <sheetData sheetId="271" refreshError="1"/>
-      <sheetData sheetId="272" refreshError="1"/>
-      <sheetData sheetId="273" refreshError="1"/>
-      <sheetData sheetId="274" refreshError="1"/>
-      <sheetData sheetId="275" refreshError="1"/>
-      <sheetData sheetId="276" refreshError="1"/>
-      <sheetData sheetId="277" refreshError="1"/>
-      <sheetData sheetId="278" refreshError="1"/>
-      <sheetData sheetId="279" refreshError="1"/>
-      <sheetData sheetId="280" refreshError="1"/>
-      <sheetData sheetId="281" refreshError="1"/>
-      <sheetData sheetId="282" refreshError="1"/>
-      <sheetData sheetId="283" refreshError="1"/>
-      <sheetData sheetId="284" refreshError="1"/>
-      <sheetData sheetId="285" refreshError="1"/>
-      <sheetData sheetId="286" refreshError="1"/>
-      <sheetData sheetId="287" refreshError="1"/>
-      <sheetData sheetId="288" refreshError="1"/>
-      <sheetData sheetId="289" refreshError="1"/>
-      <sheetData sheetId="290" refreshError="1"/>
-      <sheetData sheetId="291" refreshError="1"/>
-      <sheetData sheetId="292" refreshError="1"/>
-      <sheetData sheetId="293" refreshError="1"/>
-      <sheetData sheetId="294" refreshError="1"/>
-      <sheetData sheetId="295" refreshError="1"/>
-      <sheetData sheetId="296" refreshError="1"/>
-      <sheetData sheetId="297" refreshError="1"/>
-      <sheetData sheetId="298" refreshError="1"/>
-      <sheetData sheetId="299" refreshError="1"/>
-      <sheetData sheetId="300" refreshError="1"/>
-      <sheetData sheetId="301" refreshError="1"/>
-      <sheetData sheetId="302" refreshError="1"/>
-      <sheetData sheetId="303" refreshError="1"/>
-      <sheetData sheetId="304" refreshError="1"/>
-      <sheetData sheetId="305" refreshError="1"/>
-      <sheetData sheetId="306" refreshError="1"/>
-      <sheetData sheetId="307" refreshError="1"/>
-      <sheetData sheetId="308" refreshError="1"/>
-      <sheetData sheetId="309" refreshError="1"/>
-      <sheetData sheetId="310" refreshError="1"/>
-      <sheetData sheetId="311" refreshError="1"/>
-      <sheetData sheetId="312" refreshError="1"/>
-      <sheetData sheetId="313" refreshError="1"/>
-      <sheetData sheetId="314" refreshError="1"/>
-      <sheetData sheetId="315" refreshError="1"/>
-      <sheetData sheetId="316" refreshError="1"/>
-      <sheetData sheetId="317" refreshError="1"/>
-      <sheetData sheetId="318" refreshError="1"/>
-      <sheetData sheetId="319" refreshError="1"/>
-      <sheetData sheetId="320" refreshError="1"/>
-      <sheetData sheetId="321" refreshError="1"/>
-      <sheetData sheetId="322" refreshError="1"/>
-      <sheetData sheetId="323" refreshError="1"/>
-      <sheetData sheetId="324" refreshError="1"/>
-      <sheetData sheetId="325" refreshError="1"/>
-      <sheetData sheetId="326" refreshError="1"/>
-      <sheetData sheetId="327" refreshError="1"/>
-      <sheetData sheetId="328" refreshError="1"/>
-      <sheetData sheetId="329" refreshError="1"/>
-      <sheetData sheetId="330" refreshError="1"/>
-      <sheetData sheetId="331" refreshError="1"/>
-      <sheetData sheetId="332" refreshError="1"/>
-      <sheetData sheetId="333" refreshError="1"/>
-      <sheetData sheetId="334" refreshError="1"/>
-      <sheetData sheetId="335" refreshError="1"/>
-      <sheetData sheetId="336" refreshError="1"/>
-      <sheetData sheetId="337" refreshError="1"/>
-      <sheetData sheetId="338" refreshError="1"/>
-      <sheetData sheetId="339" refreshError="1"/>
-      <sheetData sheetId="340" refreshError="1"/>
-      <sheetData sheetId="341" refreshError="1"/>
-      <sheetData sheetId="342" refreshError="1"/>
-      <sheetData sheetId="343" refreshError="1"/>
-      <sheetData sheetId="344" refreshError="1"/>
-      <sheetData sheetId="345" refreshError="1"/>
-      <sheetData sheetId="346" refreshError="1"/>
-      <sheetData sheetId="347" refreshError="1"/>
-      <sheetData sheetId="348" refreshError="1"/>
-      <sheetData sheetId="349" refreshError="1"/>
-      <sheetData sheetId="350" refreshError="1"/>
-      <sheetData sheetId="351" refreshError="1"/>
-      <sheetData sheetId="352" refreshError="1"/>
-      <sheetData sheetId="353" refreshError="1"/>
-      <sheetData sheetId="354" refreshError="1"/>
-      <sheetData sheetId="355" refreshError="1"/>
-      <sheetData sheetId="356" refreshError="1"/>
-      <sheetData sheetId="357" refreshError="1"/>
-      <sheetData sheetId="358" refreshError="1"/>
-      <sheetData sheetId="359" refreshError="1"/>
-      <sheetData sheetId="360" refreshError="1"/>
-      <sheetData sheetId="361" refreshError="1"/>
-      <sheetData sheetId="362" refreshError="1"/>
-      <sheetData sheetId="363" refreshError="1"/>
-      <sheetData sheetId="364" refreshError="1"/>
-      <sheetData sheetId="365" refreshError="1"/>
-      <sheetData sheetId="366" refreshError="1"/>
-      <sheetData sheetId="367" refreshError="1"/>
-      <sheetData sheetId="368" refreshError="1"/>
-      <sheetData sheetId="369" refreshError="1"/>
-      <sheetData sheetId="370" refreshError="1"/>
-      <sheetData sheetId="371" refreshError="1"/>
-      <sheetData sheetId="372" refreshError="1"/>
-      <sheetData sheetId="373" refreshError="1"/>
-      <sheetData sheetId="374" refreshError="1"/>
-      <sheetData sheetId="375" refreshError="1"/>
-      <sheetData sheetId="376" refreshError="1"/>
-      <sheetData sheetId="377" refreshError="1"/>
-      <sheetData sheetId="378" refreshError="1"/>
-      <sheetData sheetId="379" refreshError="1"/>
-      <sheetData sheetId="380" refreshError="1"/>
-      <sheetData sheetId="381" refreshError="1"/>
-      <sheetData sheetId="382" refreshError="1"/>
-      <sheetData sheetId="383" refreshError="1"/>
-      <sheetData sheetId="384" refreshError="1"/>
-      <sheetData sheetId="385" refreshError="1"/>
-      <sheetData sheetId="386" refreshError="1"/>
-      <sheetData sheetId="387" refreshError="1"/>
-      <sheetData sheetId="388" refreshError="1"/>
-      <sheetData sheetId="389" refreshError="1"/>
-      <sheetData sheetId="390" refreshError="1"/>
-      <sheetData sheetId="391" refreshError="1"/>
-      <sheetData sheetId="392" refreshError="1"/>
-      <sheetData sheetId="393" refreshError="1"/>
-      <sheetData sheetId="394" refreshError="1"/>
-      <sheetData sheetId="395" refreshError="1"/>
-      <sheetData sheetId="396" refreshError="1"/>
-      <sheetData sheetId="397" refreshError="1"/>
-      <sheetData sheetId="398" refreshError="1"/>
-      <sheetData sheetId="399" refreshError="1"/>
-      <sheetData sheetId="400" refreshError="1"/>
-      <sheetData sheetId="401" refreshError="1"/>
-      <sheetData sheetId="402" refreshError="1"/>
-      <sheetData sheetId="403" refreshError="1"/>
-      <sheetData sheetId="404" refreshError="1"/>
-      <sheetData sheetId="405" refreshError="1"/>
-      <sheetData sheetId="406" refreshError="1"/>
-      <sheetData sheetId="407" refreshError="1"/>
-      <sheetData sheetId="408" refreshError="1"/>
-      <sheetData sheetId="409" refreshError="1"/>
-      <sheetData sheetId="410" refreshError="1"/>
-      <sheetData sheetId="411" refreshError="1"/>
-      <sheetData sheetId="412" refreshError="1"/>
-      <sheetData sheetId="413" refreshError="1"/>
-      <sheetData sheetId="414" refreshError="1"/>
-      <sheetData sheetId="415" refreshError="1"/>
-      <sheetData sheetId="416" refreshError="1"/>
-      <sheetData sheetId="417" refreshError="1"/>
-      <sheetData sheetId="418" refreshError="1"/>
-      <sheetData sheetId="419" refreshError="1"/>
-      <sheetData sheetId="420" refreshError="1"/>
-      <sheetData sheetId="421" refreshError="1"/>
-      <sheetData sheetId="422" refreshError="1"/>
-      <sheetData sheetId="423" refreshError="1"/>
-      <sheetData sheetId="424" refreshError="1"/>
-      <sheetData sheetId="425" refreshError="1"/>
-      <sheetData sheetId="426" refreshError="1"/>
-      <sheetData sheetId="427" refreshError="1"/>
-      <sheetData sheetId="428" refreshError="1"/>
-      <sheetData sheetId="429" refreshError="1"/>
-      <sheetData sheetId="430" refreshError="1"/>
-      <sheetData sheetId="431" refreshError="1"/>
-      <sheetData sheetId="432" refreshError="1"/>
-      <sheetData sheetId="433" refreshError="1"/>
-      <sheetData sheetId="434" refreshError="1"/>
-      <sheetData sheetId="435" refreshError="1"/>
-      <sheetData sheetId="436" refreshError="1"/>
-      <sheetData sheetId="437" refreshError="1"/>
-      <sheetData sheetId="438" refreshError="1"/>
-      <sheetData sheetId="439" refreshError="1"/>
-      <sheetData sheetId="440" refreshError="1"/>
-      <sheetData sheetId="441" refreshError="1"/>
-      <sheetData sheetId="442" refreshError="1"/>
-      <sheetData sheetId="443" refreshError="1"/>
-      <sheetData sheetId="444" refreshError="1"/>
-      <sheetData sheetId="445" refreshError="1"/>
-      <sheetData sheetId="446" refreshError="1"/>
-      <sheetData sheetId="447" refreshError="1"/>
-      <sheetData sheetId="448" refreshError="1"/>
-      <sheetData sheetId="449" refreshError="1"/>
-      <sheetData sheetId="450" refreshError="1"/>
-      <sheetData sheetId="451" refreshError="1"/>
-      <sheetData sheetId="452" refreshError="1"/>
-      <sheetData sheetId="453" refreshError="1"/>
-      <sheetData sheetId="454" refreshError="1"/>
-      <sheetData sheetId="455" refreshError="1"/>
-      <sheetData sheetId="456" refreshError="1"/>
-      <sheetData sheetId="457" refreshError="1"/>
-      <sheetData sheetId="458" refreshError="1"/>
-      <sheetData sheetId="459" refreshError="1"/>
-      <sheetData sheetId="460" refreshError="1"/>
-      <sheetData sheetId="461" refreshError="1"/>
-      <sheetData sheetId="462" refreshError="1"/>
-      <sheetData sheetId="463" refreshError="1"/>
-      <sheetData sheetId="464" refreshError="1"/>
-      <sheetData sheetId="465" refreshError="1"/>
-      <sheetData sheetId="466" refreshError="1"/>
-      <sheetData sheetId="467" refreshError="1"/>
-      <sheetData sheetId="468" refreshError="1"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
+      <sheetData sheetId="53"/>
+      <sheetData sheetId="54"/>
+      <sheetData sheetId="55"/>
+      <sheetData sheetId="56"/>
+      <sheetData sheetId="57"/>
+      <sheetData sheetId="58"/>
+      <sheetData sheetId="59"/>
+      <sheetData sheetId="60"/>
+      <sheetData sheetId="61"/>
+      <sheetData sheetId="62"/>
+      <sheetData sheetId="63"/>
+      <sheetData sheetId="64"/>
+      <sheetData sheetId="65"/>
+      <sheetData sheetId="66"/>
+      <sheetData sheetId="67"/>
+      <sheetData sheetId="68"/>
+      <sheetData sheetId="69"/>
+      <sheetData sheetId="70"/>
+      <sheetData sheetId="71"/>
+      <sheetData sheetId="72"/>
+      <sheetData sheetId="73"/>
+      <sheetData sheetId="74"/>
+      <sheetData sheetId="75"/>
+      <sheetData sheetId="76"/>
+      <sheetData sheetId="77"/>
+      <sheetData sheetId="78"/>
+      <sheetData sheetId="79"/>
+      <sheetData sheetId="80"/>
+      <sheetData sheetId="81"/>
+      <sheetData sheetId="82"/>
+      <sheetData sheetId="83"/>
+      <sheetData sheetId="84"/>
+      <sheetData sheetId="85"/>
+      <sheetData sheetId="86"/>
+      <sheetData sheetId="87"/>
+      <sheetData sheetId="88"/>
+      <sheetData sheetId="89"/>
+      <sheetData sheetId="90"/>
+      <sheetData sheetId="91"/>
+      <sheetData sheetId="92"/>
+      <sheetData sheetId="93"/>
+      <sheetData sheetId="94"/>
+      <sheetData sheetId="95"/>
+      <sheetData sheetId="96"/>
+      <sheetData sheetId="97"/>
+      <sheetData sheetId="98"/>
+      <sheetData sheetId="99"/>
+      <sheetData sheetId="100"/>
+      <sheetData sheetId="101"/>
+      <sheetData sheetId="102"/>
+      <sheetData sheetId="103"/>
+      <sheetData sheetId="104"/>
+      <sheetData sheetId="105"/>
+      <sheetData sheetId="106"/>
+      <sheetData sheetId="107"/>
+      <sheetData sheetId="108"/>
+      <sheetData sheetId="109"/>
+      <sheetData sheetId="110"/>
+      <sheetData sheetId="111"/>
+      <sheetData sheetId="112"/>
+      <sheetData sheetId="113"/>
+      <sheetData sheetId="114"/>
+      <sheetData sheetId="115"/>
+      <sheetData sheetId="116"/>
+      <sheetData sheetId="117"/>
+      <sheetData sheetId="118"/>
+      <sheetData sheetId="119"/>
+      <sheetData sheetId="120"/>
+      <sheetData sheetId="121"/>
+      <sheetData sheetId="122"/>
+      <sheetData sheetId="123"/>
+      <sheetData sheetId="124"/>
+      <sheetData sheetId="125"/>
+      <sheetData sheetId="126"/>
+      <sheetData sheetId="127"/>
+      <sheetData sheetId="128"/>
+      <sheetData sheetId="129"/>
+      <sheetData sheetId="130"/>
+      <sheetData sheetId="131"/>
+      <sheetData sheetId="132"/>
+      <sheetData sheetId="133"/>
+      <sheetData sheetId="134"/>
+      <sheetData sheetId="135"/>
+      <sheetData sheetId="136"/>
+      <sheetData sheetId="137"/>
+      <sheetData sheetId="138"/>
+      <sheetData sheetId="139"/>
+      <sheetData sheetId="140"/>
+      <sheetData sheetId="141"/>
+      <sheetData sheetId="142"/>
+      <sheetData sheetId="143"/>
+      <sheetData sheetId="144"/>
+      <sheetData sheetId="145"/>
+      <sheetData sheetId="146"/>
+      <sheetData sheetId="147"/>
+      <sheetData sheetId="148"/>
+      <sheetData sheetId="149"/>
+      <sheetData sheetId="150"/>
+      <sheetData sheetId="151"/>
+      <sheetData sheetId="152"/>
+      <sheetData sheetId="153"/>
+      <sheetData sheetId="154"/>
+      <sheetData sheetId="155"/>
+      <sheetData sheetId="156"/>
+      <sheetData sheetId="157"/>
+      <sheetData sheetId="158"/>
+      <sheetData sheetId="159"/>
+      <sheetData sheetId="160"/>
+      <sheetData sheetId="161"/>
+      <sheetData sheetId="162"/>
+      <sheetData sheetId="163"/>
+      <sheetData sheetId="164"/>
+      <sheetData sheetId="165"/>
+      <sheetData sheetId="166"/>
+      <sheetData sheetId="167"/>
+      <sheetData sheetId="168"/>
+      <sheetData sheetId="169"/>
+      <sheetData sheetId="170"/>
+      <sheetData sheetId="171"/>
+      <sheetData sheetId="172"/>
+      <sheetData sheetId="173"/>
+      <sheetData sheetId="174"/>
+      <sheetData sheetId="175"/>
+      <sheetData sheetId="176"/>
+      <sheetData sheetId="177"/>
+      <sheetData sheetId="178"/>
+      <sheetData sheetId="179"/>
+      <sheetData sheetId="180"/>
+      <sheetData sheetId="181"/>
+      <sheetData sheetId="182"/>
+      <sheetData sheetId="183"/>
+      <sheetData sheetId="184"/>
+      <sheetData sheetId="185"/>
+      <sheetData sheetId="186"/>
+      <sheetData sheetId="187"/>
+      <sheetData sheetId="188"/>
+      <sheetData sheetId="189"/>
+      <sheetData sheetId="190"/>
+      <sheetData sheetId="191"/>
+      <sheetData sheetId="192"/>
+      <sheetData sheetId="193"/>
+      <sheetData sheetId="194"/>
+      <sheetData sheetId="195"/>
+      <sheetData sheetId="196"/>
+      <sheetData sheetId="197"/>
+      <sheetData sheetId="198"/>
+      <sheetData sheetId="199"/>
+      <sheetData sheetId="200"/>
+      <sheetData sheetId="201"/>
+      <sheetData sheetId="202"/>
+      <sheetData sheetId="203"/>
+      <sheetData sheetId="204"/>
+      <sheetData sheetId="205"/>
+      <sheetData sheetId="206"/>
+      <sheetData sheetId="207"/>
+      <sheetData sheetId="208"/>
+      <sheetData sheetId="209"/>
+      <sheetData sheetId="210"/>
+      <sheetData sheetId="211"/>
+      <sheetData sheetId="212"/>
+      <sheetData sheetId="213"/>
+      <sheetData sheetId="214"/>
+      <sheetData sheetId="215"/>
+      <sheetData sheetId="216"/>
+      <sheetData sheetId="217"/>
+      <sheetData sheetId="218"/>
+      <sheetData sheetId="219"/>
+      <sheetData sheetId="220"/>
+      <sheetData sheetId="221"/>
+      <sheetData sheetId="222"/>
+      <sheetData sheetId="223"/>
+      <sheetData sheetId="224"/>
+      <sheetData sheetId="225"/>
+      <sheetData sheetId="226"/>
+      <sheetData sheetId="227"/>
+      <sheetData sheetId="228"/>
+      <sheetData sheetId="229"/>
+      <sheetData sheetId="230"/>
+      <sheetData sheetId="231"/>
+      <sheetData sheetId="232"/>
+      <sheetData sheetId="233"/>
+      <sheetData sheetId="234"/>
+      <sheetData sheetId="235"/>
+      <sheetData sheetId="236"/>
+      <sheetData sheetId="237"/>
+      <sheetData sheetId="238"/>
+      <sheetData sheetId="239"/>
+      <sheetData sheetId="240"/>
+      <sheetData sheetId="241"/>
+      <sheetData sheetId="242"/>
+      <sheetData sheetId="243"/>
+      <sheetData sheetId="244"/>
+      <sheetData sheetId="245"/>
+      <sheetData sheetId="246"/>
+      <sheetData sheetId="247"/>
+      <sheetData sheetId="248"/>
+      <sheetData sheetId="249"/>
+      <sheetData sheetId="250"/>
+      <sheetData sheetId="251"/>
+      <sheetData sheetId="252"/>
+      <sheetData sheetId="253"/>
+      <sheetData sheetId="254"/>
+      <sheetData sheetId="255"/>
+      <sheetData sheetId="256"/>
+      <sheetData sheetId="257"/>
+      <sheetData sheetId="258"/>
+      <sheetData sheetId="259"/>
+      <sheetData sheetId="260"/>
+      <sheetData sheetId="261"/>
+      <sheetData sheetId="262"/>
+      <sheetData sheetId="263"/>
+      <sheetData sheetId="264"/>
+      <sheetData sheetId="265"/>
+      <sheetData sheetId="266"/>
+      <sheetData sheetId="267"/>
+      <sheetData sheetId="268"/>
+      <sheetData sheetId="269"/>
+      <sheetData sheetId="270"/>
+      <sheetData sheetId="271"/>
+      <sheetData sheetId="272"/>
+      <sheetData sheetId="273"/>
+      <sheetData sheetId="274"/>
+      <sheetData sheetId="275"/>
+      <sheetData sheetId="276"/>
+      <sheetData sheetId="277"/>
+      <sheetData sheetId="278"/>
+      <sheetData sheetId="279"/>
+      <sheetData sheetId="280"/>
+      <sheetData sheetId="281"/>
+      <sheetData sheetId="282"/>
+      <sheetData sheetId="283"/>
+      <sheetData sheetId="284"/>
+      <sheetData sheetId="285"/>
+      <sheetData sheetId="286"/>
+      <sheetData sheetId="287"/>
+      <sheetData sheetId="288"/>
+      <sheetData sheetId="289"/>
+      <sheetData sheetId="290"/>
+      <sheetData sheetId="291"/>
+      <sheetData sheetId="292"/>
+      <sheetData sheetId="293"/>
+      <sheetData sheetId="294"/>
+      <sheetData sheetId="295"/>
+      <sheetData sheetId="296"/>
+      <sheetData sheetId="297"/>
+      <sheetData sheetId="298"/>
+      <sheetData sheetId="299"/>
+      <sheetData sheetId="300"/>
+      <sheetData sheetId="301"/>
+      <sheetData sheetId="302"/>
+      <sheetData sheetId="303"/>
+      <sheetData sheetId="304"/>
+      <sheetData sheetId="305"/>
+      <sheetData sheetId="306"/>
+      <sheetData sheetId="307"/>
+      <sheetData sheetId="308"/>
+      <sheetData sheetId="309"/>
+      <sheetData sheetId="310"/>
+      <sheetData sheetId="311"/>
+      <sheetData sheetId="312"/>
+      <sheetData sheetId="313"/>
+      <sheetData sheetId="314"/>
+      <sheetData sheetId="315"/>
+      <sheetData sheetId="316"/>
+      <sheetData sheetId="317"/>
+      <sheetData sheetId="318"/>
+      <sheetData sheetId="319"/>
+      <sheetData sheetId="320"/>
+      <sheetData sheetId="321"/>
+      <sheetData sheetId="322"/>
+      <sheetData sheetId="323"/>
+      <sheetData sheetId="324"/>
+      <sheetData sheetId="325"/>
+      <sheetData sheetId="326"/>
+      <sheetData sheetId="327"/>
+      <sheetData sheetId="328"/>
+      <sheetData sheetId="329"/>
+      <sheetData sheetId="330"/>
+      <sheetData sheetId="331"/>
+      <sheetData sheetId="332"/>
+      <sheetData sheetId="333"/>
+      <sheetData sheetId="334"/>
+      <sheetData sheetId="335"/>
+      <sheetData sheetId="336"/>
+      <sheetData sheetId="337"/>
+      <sheetData sheetId="338"/>
+      <sheetData sheetId="339"/>
+      <sheetData sheetId="340"/>
+      <sheetData sheetId="341"/>
+      <sheetData sheetId="342"/>
+      <sheetData sheetId="343"/>
+      <sheetData sheetId="344"/>
+      <sheetData sheetId="345"/>
+      <sheetData sheetId="346"/>
+      <sheetData sheetId="347"/>
+      <sheetData sheetId="348"/>
+      <sheetData sheetId="349"/>
+      <sheetData sheetId="350"/>
+      <sheetData sheetId="351"/>
+      <sheetData sheetId="352"/>
+      <sheetData sheetId="353"/>
+      <sheetData sheetId="354"/>
+      <sheetData sheetId="355"/>
+      <sheetData sheetId="356"/>
+      <sheetData sheetId="357"/>
+      <sheetData sheetId="358"/>
+      <sheetData sheetId="359"/>
+      <sheetData sheetId="360"/>
+      <sheetData sheetId="361"/>
+      <sheetData sheetId="362"/>
+      <sheetData sheetId="363"/>
+      <sheetData sheetId="364"/>
+      <sheetData sheetId="365"/>
+      <sheetData sheetId="366"/>
+      <sheetData sheetId="367"/>
+      <sheetData sheetId="368"/>
+      <sheetData sheetId="369"/>
+      <sheetData sheetId="370"/>
+      <sheetData sheetId="371"/>
+      <sheetData sheetId="372"/>
+      <sheetData sheetId="373"/>
+      <sheetData sheetId="374"/>
+      <sheetData sheetId="375"/>
+      <sheetData sheetId="376"/>
+      <sheetData sheetId="377"/>
+      <sheetData sheetId="378"/>
+      <sheetData sheetId="379"/>
+      <sheetData sheetId="380"/>
+      <sheetData sheetId="381"/>
+      <sheetData sheetId="382"/>
+      <sheetData sheetId="383"/>
+      <sheetData sheetId="384"/>
+      <sheetData sheetId="385"/>
+      <sheetData sheetId="386"/>
+      <sheetData sheetId="387"/>
+      <sheetData sheetId="388"/>
+      <sheetData sheetId="389"/>
+      <sheetData sheetId="390"/>
+      <sheetData sheetId="391"/>
+      <sheetData sheetId="392"/>
+      <sheetData sheetId="393"/>
+      <sheetData sheetId="394"/>
+      <sheetData sheetId="395"/>
+      <sheetData sheetId="396"/>
+      <sheetData sheetId="397"/>
+      <sheetData sheetId="398"/>
+      <sheetData sheetId="399"/>
+      <sheetData sheetId="400"/>
+      <sheetData sheetId="401"/>
+      <sheetData sheetId="402"/>
+      <sheetData sheetId="403"/>
+      <sheetData sheetId="404"/>
+      <sheetData sheetId="405"/>
+      <sheetData sheetId="406"/>
+      <sheetData sheetId="407"/>
+      <sheetData sheetId="408"/>
+      <sheetData sheetId="409"/>
+      <sheetData sheetId="410"/>
+      <sheetData sheetId="411"/>
+      <sheetData sheetId="412"/>
+      <sheetData sheetId="413"/>
+      <sheetData sheetId="414"/>
+      <sheetData sheetId="415"/>
+      <sheetData sheetId="416"/>
+      <sheetData sheetId="417"/>
+      <sheetData sheetId="418"/>
+      <sheetData sheetId="419"/>
+      <sheetData sheetId="420"/>
+      <sheetData sheetId="421"/>
+      <sheetData sheetId="422"/>
+      <sheetData sheetId="423"/>
+      <sheetData sheetId="424"/>
+      <sheetData sheetId="425"/>
+      <sheetData sheetId="426"/>
+      <sheetData sheetId="427"/>
+      <sheetData sheetId="428"/>
+      <sheetData sheetId="429"/>
+      <sheetData sheetId="430"/>
+      <sheetData sheetId="431"/>
+      <sheetData sheetId="432"/>
+      <sheetData sheetId="433"/>
+      <sheetData sheetId="434"/>
+      <sheetData sheetId="435"/>
+      <sheetData sheetId="436"/>
+      <sheetData sheetId="437"/>
+      <sheetData sheetId="438"/>
+      <sheetData sheetId="439"/>
+      <sheetData sheetId="440"/>
+      <sheetData sheetId="441"/>
+      <sheetData sheetId="442"/>
+      <sheetData sheetId="443"/>
+      <sheetData sheetId="444"/>
+      <sheetData sheetId="445"/>
+      <sheetData sheetId="446"/>
+      <sheetData sheetId="447"/>
+      <sheetData sheetId="448"/>
+      <sheetData sheetId="449"/>
+      <sheetData sheetId="450"/>
+      <sheetData sheetId="451"/>
+      <sheetData sheetId="452"/>
+      <sheetData sheetId="453"/>
+      <sheetData sheetId="454"/>
+      <sheetData sheetId="455"/>
+      <sheetData sheetId="456"/>
+      <sheetData sheetId="457"/>
+      <sheetData sheetId="458"/>
+      <sheetData sheetId="459"/>
+      <sheetData sheetId="460"/>
+      <sheetData sheetId="461"/>
+      <sheetData sheetId="462"/>
+      <sheetData sheetId="463"/>
+      <sheetData sheetId="464"/>
+      <sheetData sheetId="465"/>
+      <sheetData sheetId="466"/>
+      <sheetData sheetId="467"/>
+      <sheetData sheetId="468"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2476,10 +2498,10 @@
     <tabColor rgb="FF92D04F"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T51"/>
+  <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="49" zoomScalePageLayoutView="49" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView zoomScale="75" zoomScaleNormal="49" zoomScalePageLayoutView="49" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2502,7 +2524,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2521,12 +2543,12 @@
         <v>4</v>
       </c>
       <c r="N1" s="5">
-        <f>E14+N22+I37+J47+I51</f>
+        <f>E14+N21+I36+J46+I50</f>
         <v>203.49199448376947</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="92" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2540,7 +2562,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="92" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2551,7 +2573,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="92" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -2569,7 +2591,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="92" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2580,7 +2602,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="92" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2764,10 +2786,10 @@
       </c>
       <c r="D17" s="18">
         <f>0.27*E17</f>
-        <v>6.75</v>
+        <v>5.4</v>
       </c>
       <c r="E17" s="10">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>43</v>
@@ -2779,245 +2801,237 @@
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
       <c r="M17" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N17" s="12">
         <f>M17*D17</f>
-        <v>13.5</v>
+        <v>21.6</v>
       </c>
       <c r="P17" s="23"/>
       <c r="Q17" s="24"/>
     </row>
     <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="25">
+      <c r="A18" s="17">
         <v>20</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="18">
-        <f>0.27*E18</f>
-        <v>4.0500000000000007</v>
-      </c>
-      <c r="E18" s="10">
-        <v>15</v>
-      </c>
-      <c r="F18" s="10" t="s">
+      <c r="B18" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="29">
+        <f>0.47*E18</f>
+        <v>20.68</v>
+      </c>
+      <c r="E18" s="28">
+        <v>44</v>
+      </c>
+      <c r="F18" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="26"/>
       <c r="J18" s="21"/>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
-      <c r="M18" s="22">
-        <v>2</v>
+      <c r="M18" s="31">
+        <v>0.15</v>
       </c>
       <c r="N18" s="12">
         <f>M18*D18</f>
-        <v>8.1000000000000014</v>
-      </c>
-      <c r="P18" s="26"/>
+        <v>3.1019999999999999</v>
+      </c>
+      <c r="P18" s="25"/>
       <c r="Q18" s="24"/>
     </row>
     <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="17">
         <v>30</v>
       </c>
-      <c r="B19" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="30">
-        <f>0.47*E19</f>
-        <v>20.68</v>
-      </c>
-      <c r="E19" s="29">
-        <v>44</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="27"/>
+      <c r="B19" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="26"/>
       <c r="J19" s="21"/>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
-      <c r="M19" s="32">
-        <v>0.15</v>
+      <c r="M19" s="22">
+        <v>1</v>
       </c>
       <c r="N19" s="12">
         <f>M19*D19</f>
-        <v>3.1019999999999999</v>
-      </c>
-      <c r="P19" s="26"/>
+        <v>0.05</v>
+      </c>
+      <c r="P19" s="25"/>
       <c r="Q19" s="24"/>
     </row>
     <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="17">
         <v>40</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="D20" s="30">
-        <v>0.05</v>
-      </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="27"/>
+      <c r="B20" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="29">
+        <v>10</v>
+      </c>
+      <c r="E20" s="32">
+        <f>106.435/10000</f>
+        <v>1.06435E-2</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="26"/>
       <c r="J20" s="21"/>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
-      <c r="M20" s="22">
-        <v>1</v>
+      <c r="M20" s="32">
+        <f>106.435/10000</f>
+        <v>1.06435E-2</v>
       </c>
       <c r="N20" s="12">
         <f>M20*D20</f>
-        <v>0.05</v>
-      </c>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="24"/>
-    </row>
-    <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="17">
+        <v>0.106435</v>
+      </c>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+    </row>
+    <row r="21" spans="1:20" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="16">
+        <f>SUM(N17:N20)</f>
+        <v>24.858435000000004</v>
+      </c>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+    </row>
+    <row r="23" spans="1:20" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="29" t="s">
+      <c r="F23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="36">
+        <v>10</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="39">
+        <v>0.15</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="40">
+        <v>9.83</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10">
+        <v>1</v>
+      </c>
+      <c r="I24" s="12">
+        <f>D24*F24*H24</f>
+        <v>1.4744999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="36">
+        <v>20</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="30">
-        <v>10</v>
-      </c>
-      <c r="E21" s="33">
+      <c r="D25" s="39">
+        <v>5.25</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="32">
         <f>106.435/10000</f>
         <v>1.06435E-2</v>
       </c>
-      <c r="F21" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="33">
-        <f>106.435/10000</f>
-        <v>1.06435E-2</v>
-      </c>
-      <c r="N21" s="12">
-        <f>M21*D21</f>
-        <v>0.106435</v>
-      </c>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-    </row>
-    <row r="22" spans="1:20" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="M22" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="N22" s="16">
-        <f>SUM(N17:N21)</f>
-        <v>24.858435000000004</v>
-      </c>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-    </row>
-    <row r="24" spans="1:20" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="37">
-        <v>10</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="40">
-        <v>0.15</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="41">
-        <v>9.83</v>
-      </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10">
         <v>1</v>
       </c>
       <c r="I25" s="12">
         <f>D25*F25*H25</f>
-        <v>1.4744999999999999</v>
+        <v>5.5878375000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37">
-        <v>20</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="40">
-        <v>5.25</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="33">
-        <f>106.435/10000</f>
-        <v>1.06435E-2</v>
+      <c r="A26" s="36">
+        <v>30</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="39">
+        <v>0.06</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="40">
+        <v>4</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10">
@@ -3025,26 +3039,26 @@
       </c>
       <c r="I26" s="12">
         <f>D26*F26*H26</f>
-        <v>5.5878375000000001E-2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="37">
-        <v>30</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="40">
-        <v>0.06</v>
-      </c>
-      <c r="E27" s="38" t="s">
+      <c r="A27" s="36">
+        <v>40</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="42">
+        <v>0.75</v>
+      </c>
+      <c r="E27" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="41">
+      <c r="F27" s="40">
         <v>4</v>
       </c>
       <c r="G27" s="10"/>
@@ -3052,83 +3066,83 @@
         <v>1</v>
       </c>
       <c r="I27" s="12">
-        <f>D27*F27*H27</f>
-        <v>0.24</v>
+        <f t="shared" ref="I27:I35" si="1">D27*F27*H27</f>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="37">
-        <v>40</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="43">
-        <v>0.75</v>
-      </c>
-      <c r="E28" s="37" t="s">
+      <c r="A28" s="36">
         <v>50</v>
       </c>
-      <c r="F28" s="41">
-        <v>4</v>
+      <c r="B28" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="39">
+        <v>0.38</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="40">
+        <v>1</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10">
         <v>1</v>
       </c>
       <c r="I28" s="12">
-        <f t="shared" ref="I28:I36" si="1">D28*F28*H28</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0.38</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="37">
+      <c r="A29" s="36">
+        <v>60</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="42">
+        <v>0.75</v>
+      </c>
+      <c r="E29" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="40">
-        <v>0.38</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" s="41">
-        <v>1</v>
+      <c r="F29" s="40">
+        <v>4</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10">
         <v>1</v>
       </c>
       <c r="I29" s="12">
-        <f t="shared" si="1"/>
-        <v>0.38</v>
+        <f>D29*F29*H29</f>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="37">
-        <v>60</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="39" t="s">
+      <c r="A30" s="36">
+        <v>70</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="43">
-        <v>0.75</v>
-      </c>
-      <c r="E30" s="37" t="s">
+      <c r="D30" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="E30" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="41">
+      <c r="F30" s="40">
         <v>4</v>
       </c>
       <c r="G30" s="10"/>
@@ -3136,28 +3150,29 @@
         <v>1</v>
       </c>
       <c r="I30" s="12">
-        <f>D30*F30*H30</f>
-        <v>3</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L30" s="34"/>
     </row>
     <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="37">
-        <v>70</v>
-      </c>
-      <c r="B31" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="43">
-        <v>0.25</v>
-      </c>
-      <c r="E31" s="37" t="s">
+      <c r="A31" s="36">
+        <v>90</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" s="42">
+        <v>0.06</v>
+      </c>
+      <c r="E31" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="41">
-        <v>4</v>
+      <c r="F31" s="40">
+        <v>1</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10">
@@ -3165,28 +3180,27 @@
       </c>
       <c r="I31" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L31" s="35"/>
+        <v>0.06</v>
+      </c>
     </row>
     <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="37">
-        <v>90</v>
-      </c>
-      <c r="B32" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" s="43">
-        <v>0.06</v>
-      </c>
-      <c r="E32" s="37" t="s">
+      <c r="A32" s="36">
+        <v>110</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="41">
-        <v>1</v>
+      <c r="F32" s="40">
+        <v>2</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10">
@@ -3194,27 +3208,27 @@
       </c>
       <c r="I32" s="12">
         <f t="shared" si="1"/>
-        <v>0.06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="37">
-        <v>110</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="40">
+      <c r="A33" s="36">
+        <v>120</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="39">
         <v>0.5</v>
       </c>
-      <c r="E33" s="37" t="s">
+      <c r="E33" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="41">
-        <v>2</v>
+      <c r="F33" s="40">
+        <v>1</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10">
@@ -3222,26 +3236,26 @@
       </c>
       <c r="I33" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="37">
-        <v>120</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="E34" s="37" t="s">
+      <c r="A34" s="36">
+        <v>130</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="39">
+        <v>0.25</v>
+      </c>
+      <c r="E34" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="40">
         <v>1</v>
       </c>
       <c r="G34" s="10"/>
@@ -3250,27 +3264,27 @@
       </c>
       <c r="I34" s="12">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="37">
-        <v>130</v>
-      </c>
-      <c r="B35" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E35" s="37" t="s">
+      <c r="A35" s="36">
+        <v>140</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="39">
+        <v>0.75</v>
+      </c>
+      <c r="E35" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="41">
-        <v>1</v>
+      <c r="F35" s="40">
+        <v>2</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10">
@@ -3278,369 +3292,341 @@
       </c>
       <c r="I35" s="12">
         <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="37">
-        <v>140</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="D36" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="E36" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" s="41">
-        <v>2</v>
-      </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10">
-        <v>1</v>
-      </c>
-      <c r="I36" s="12">
-        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H37" s="15" t="s">
+    <row r="36" spans="1:13" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I37" s="45">
-        <f>SUM(I25:I36)</f>
+      <c r="I36" s="44">
+        <f>SUM(I24:I35)</f>
         <v>12.460378374999999</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
+    <row r="38" spans="1:13" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B38" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C38" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D38" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E38" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F38" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G38" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H38" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="I38" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J39" s="9" t="s">
+      <c r="J38" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M39" s="46"/>
+      <c r="M38" s="45"/>
+    </row>
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10">
+        <v>10</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" s="47">
+        <v>0.04</v>
+      </c>
+      <c r="E39" s="48">
+        <v>6</v>
+      </c>
+      <c r="F39" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="49">
+        <v>4</v>
+      </c>
+      <c r="J39" s="12">
+        <f t="shared" ref="J39:J45" si="2">I39*D39</f>
+        <v>0.16</v>
+      </c>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
-        <v>10</v>
-      </c>
-      <c r="B40" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="D40" s="48">
-        <v>0.04</v>
-      </c>
-      <c r="E40" s="49">
+        <v>20</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" s="47">
+        <v>0.01</v>
+      </c>
+      <c r="E40" s="36">
         <v>6</v>
       </c>
-      <c r="F40" s="49" t="s">
+      <c r="F40" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="50">
-        <v>4</v>
+      <c r="G40" s="36"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="49">
+        <v>8</v>
       </c>
       <c r="J40" s="12">
-        <f t="shared" ref="J40:J46" si="2">I40*D40</f>
-        <v>0.16</v>
+        <f t="shared" si="2"/>
+        <v>0.08</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
-        <v>20</v>
-      </c>
-      <c r="B41" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="D41" s="48">
-        <v>0.01</v>
-      </c>
-      <c r="E41" s="37">
+        <v>30</v>
+      </c>
+      <c r="B41" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="39">
+        <v>0.04</v>
+      </c>
+      <c r="E41" s="36">
         <v>6</v>
       </c>
-      <c r="F41" s="51" t="s">
+      <c r="F41" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="G41" s="37"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="50">
-        <v>8</v>
+      <c r="G41" s="36">
+        <v>30</v>
+      </c>
+      <c r="H41" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" s="49">
+        <v>4</v>
       </c>
       <c r="J41" s="12">
         <f t="shared" si="2"/>
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
-        <v>30</v>
-      </c>
-      <c r="B42" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" s="40">
-        <v>0.04</v>
-      </c>
-      <c r="E42" s="37">
+        <v>40</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="39">
+        <v>0.03</v>
+      </c>
+      <c r="E42" s="36">
         <v>6</v>
       </c>
-      <c r="F42" s="53" t="s">
+      <c r="F42" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="37">
-        <v>30</v>
-      </c>
-      <c r="H42" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="I42" s="50">
-        <v>4</v>
+      <c r="G42" s="36"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="53">
+        <v>5</v>
       </c>
       <c r="J42" s="12">
         <f t="shared" si="2"/>
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
-        <v>40</v>
-      </c>
-      <c r="B43" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="40">
-        <v>0.03</v>
-      </c>
-      <c r="E43" s="37">
+        <v>50</v>
+      </c>
+      <c r="B43" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="39">
+        <v>0.01</v>
+      </c>
+      <c r="E43" s="36">
         <v>6</v>
       </c>
-      <c r="F43" s="53" t="s">
+      <c r="F43" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="G43" s="37"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="54">
+      <c r="G43" s="36"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="53">
         <v>5</v>
       </c>
       <c r="J43" s="12">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
-        <v>50</v>
-      </c>
-      <c r="B44" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44" s="40">
-        <v>0.01</v>
-      </c>
-      <c r="E44" s="37">
-        <v>6</v>
-      </c>
-      <c r="F44" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" s="47">
+        <f>0.004*E44+0.5</f>
+        <v>0.72</v>
+      </c>
+      <c r="E44" s="36">
+        <v>55</v>
+      </c>
+      <c r="F44" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="G44" s="37"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="54">
-        <v>5</v>
+      <c r="G44" s="36"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="49">
+        <v>1</v>
       </c>
       <c r="J44" s="12">
-        <f t="shared" si="2"/>
-        <v>0.05</v>
+        <f t="shared" ref="J44" si="3">I44*D44</f>
+        <v>0.72</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
-        <v>60</v>
-      </c>
-      <c r="B45" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="D45" s="48">
+      <c r="C45" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" s="47">
         <f>0.004*E45+0.5</f>
-        <v>0.72</v>
-      </c>
-      <c r="E45" s="37">
-        <v>55</v>
-      </c>
-      <c r="F45" s="51" t="s">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E45" s="36">
+        <v>15</v>
+      </c>
+      <c r="F45" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="G45" s="37"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="50">
+      <c r="G45" s="36"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="49">
         <v>1</v>
       </c>
       <c r="J45" s="12">
-        <f t="shared" ref="J45" si="3">I45*D45</f>
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="10">
-        <v>70</v>
-      </c>
-      <c r="B46" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="D46" s="48">
-        <f>0.004*E46+0.5</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E46" s="37">
-        <v>15</v>
-      </c>
-      <c r="F46" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="G46" s="37"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="50">
-        <v>1</v>
-      </c>
-      <c r="J46" s="12">
         <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I47" s="15" t="s">
+    <row r="46" spans="1:13" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I46" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J47" s="16">
-        <f>SUM(J40:J46)</f>
+      <c r="J46" s="16">
+        <f>SUM(J39:J45)</f>
         <v>1.8800000000000001</v>
       </c>
     </row>
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I49" s="9" t="s">
+      <c r="A49" s="36">
+        <v>10</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="42">
+        <v>500</v>
+      </c>
+      <c r="E49" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" s="36">
+        <v>8</v>
+      </c>
+      <c r="G49" s="36">
+        <v>3000</v>
+      </c>
+      <c r="H49" s="36">
+        <v>1</v>
+      </c>
+      <c r="I49" s="54">
+        <f>D49*F49/G49*H49</f>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="37">
-        <v>10</v>
-      </c>
-      <c r="B50" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" s="43">
-        <v>500</v>
-      </c>
-      <c r="E50" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="F50" s="37">
-        <v>8</v>
-      </c>
-      <c r="G50" s="37">
-        <v>3000</v>
-      </c>
-      <c r="H50" s="37">
-        <v>1</v>
-      </c>
       <c r="I50" s="55">
-        <f>D50*F50/G50*H50</f>
-        <v>1.3333333333333333</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="36"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I51" s="56">
-        <f>SUM(I50:I50)</f>
+        <f>SUM(I49:I49)</f>
         <v>1.3333333333333333</v>
       </c>
     </row>
@@ -3670,8 +3656,8 @@
   </sheetPr>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="49" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:N12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="49" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3704,7 +3690,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3713,13 +3699,13 @@
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="94" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="4">
         <v>81</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="92" t="s">
         <v>21</v>
       </c>
       <c r="N1" s="8">
@@ -3728,19 +3714,19 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="92" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="92" t="s">
         <v>7</v>
       </c>
       <c r="N2" s="6">
@@ -3748,34 +3734,34 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="92" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="57" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="92" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="92" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="92" t="s">
         <v>13</v>
       </c>
       <c r="N4" s="8">
@@ -3784,18 +3770,19 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="92" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="J5" s="92" t="s">
         <v>16</v>
       </c>
+      <c r="M5" s="95"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="92" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3803,581 +3790,581 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="92" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="61" t="s">
+    <row r="9" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61" t="s">
+      <c r="F9" s="96"/>
+      <c r="G9" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="61" t="s">
+      <c r="H9" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="61" t="s">
+      <c r="K9" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="61" t="s">
+      <c r="L9" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="61" t="s">
+      <c r="M9" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="61" t="s">
+      <c r="N9" s="96" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="29">
+      <c r="A10" s="28">
         <v>10</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="29">
         <v>4.2</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="62">
         <f>J10*K10*L10</f>
         <v>3.7425600000000006</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="28">
         <v>2.5</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="64" t="s">
+      <c r="I10" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="J10" s="65">
+      <c r="J10" s="64">
         <f>460*1200/1000000</f>
         <v>0.55200000000000005</v>
       </c>
-      <c r="K10" s="66">
+      <c r="K10" s="65">
         <f>2.5/1000</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="L10" s="67">
+      <c r="L10" s="66">
         <v>2712</v>
       </c>
-      <c r="M10" s="68">
-        <v>1</v>
-      </c>
-      <c r="N10" s="55">
+      <c r="M10" s="67">
+        <v>1</v>
+      </c>
+      <c r="N10" s="54">
         <f>IF(J10="",D10*M10,D10*J10*K10*L10*M10)</f>
         <v>15.718752000000004</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="29">
+      <c r="A11" s="28">
         <v>20</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="29">
         <v>4.2</v>
       </c>
-      <c r="E11" s="63">
+      <c r="E11" s="62">
         <f>J11*K11*L11</f>
         <v>0.10258079128948773</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="28">
         <v>2</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="J11" s="65">
+      <c r="J11" s="64">
         <f>(PI()*22.5*22.5-PI()*20.5*20.5)/1000000</f>
         <v>2.7017696820872241E-4</v>
       </c>
-      <c r="K11" s="69">
+      <c r="K11" s="68">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L11" s="67">
+      <c r="L11" s="66">
         <v>2712</v>
       </c>
-      <c r="M11" s="68">
-        <v>1</v>
-      </c>
-      <c r="N11" s="55">
+      <c r="M11" s="67">
+        <v>1</v>
+      </c>
+      <c r="N11" s="54">
         <f>IF(J11="",D11*M11,D11*J11*K11*L11*M11)</f>
         <v>0.43083932341584852</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="29">
+      <c r="A12" s="28">
         <v>30</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="29">
         <v>1.85</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="28">
         <v>8</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="72">
+      <c r="G12" s="28"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="71">
         <v>2</v>
       </c>
-      <c r="N12" s="55">
+      <c r="N12" s="54">
         <f>IF(J12="",D12*M12,D12*J12*K12*L12*M12)</f>
         <v>3.7</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="M13" s="73" t="s">
+    <row r="13" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M13" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="74">
+      <c r="N13" s="97">
         <f>SUM(N10:N12)</f>
         <v>19.849591323415851</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="61" t="s">
+    <row r="15" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="61" t="s">
+      <c r="E15" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="61" t="s">
+      <c r="G15" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="61" t="s">
+      <c r="H15" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="61" t="s">
+      <c r="I15" s="96" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="75">
+      <c r="A16" s="74">
         <v>10</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="75">
         <v>1.3</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="75">
-        <v>1</v>
-      </c>
-      <c r="G16" s="75" t="s">
+      <c r="F16" s="74">
+        <v>1</v>
+      </c>
+      <c r="G16" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="H16" s="75">
-        <v>1</v>
-      </c>
-      <c r="I16" s="55">
+      <c r="H16" s="74">
+        <v>1</v>
+      </c>
+      <c r="I16" s="54">
         <f>IF(H16="",D16*F16,D16*F16*H16)</f>
         <v>1.3</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="37">
+      <c r="A17" s="36">
         <v>20</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="39">
         <v>0.01</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="77">
+      <c r="F17" s="76">
         <v>178</v>
       </c>
-      <c r="G17" s="38" t="s">
+      <c r="G17" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="41">
-        <v>1</v>
-      </c>
-      <c r="I17" s="55">
+      <c r="H17" s="40">
+        <v>1</v>
+      </c>
+      <c r="I17" s="54">
         <f t="shared" ref="I17:I25" si="0">IF(H17="",D17*F17,D17*F17*H17)</f>
         <v>1.78</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="75">
+      <c r="A18" s="74">
         <v>30</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="39">
         <v>0.01</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="77">
+      <c r="F18" s="76">
         <v>128</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="41">
-        <v>1</v>
-      </c>
-      <c r="I18" s="55">
+      <c r="H18" s="40">
+        <v>1</v>
+      </c>
+      <c r="I18" s="54">
         <f t="shared" si="0"/>
         <v>1.28</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="75">
+      <c r="A19" s="74">
         <v>40</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="39">
         <v>0.01</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="77">
+      <c r="F19" s="76">
         <v>180</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="H19" s="41">
-        <v>1</v>
-      </c>
-      <c r="I19" s="55">
+      <c r="H19" s="40">
+        <v>1</v>
+      </c>
+      <c r="I19" s="54">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="37">
+      <c r="A20" s="36">
         <v>50</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D20" s="39">
         <v>0.01</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="77">
+      <c r="F20" s="76">
         <v>42</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="G20" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="41">
-        <v>1</v>
-      </c>
-      <c r="I20" s="55">
+      <c r="H20" s="40">
+        <v>1</v>
+      </c>
+      <c r="I20" s="54">
         <f t="shared" ref="I20" si="1">IF(H20="",D20*F20,D20*F20*H20)</f>
         <v>0.42</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="75">
+      <c r="A21" s="74">
         <v>60</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="39">
         <v>0.25</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="F21" s="77">
-        <v>1</v>
-      </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="55">
+      <c r="F21" s="76">
+        <v>1</v>
+      </c>
+      <c r="G21" s="37"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="54">
         <f>IF(H21="",D21*F21,D21*F21*H21)</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="75">
+      <c r="A22" s="74">
         <v>70</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22" s="39">
         <v>0.25</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="77">
+      <c r="F22" s="76">
         <v>2</v>
       </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="55">
+      <c r="G22" s="37"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="54">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="37">
+      <c r="A23" s="36">
         <v>80</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="D23" s="40">
+      <c r="D23" s="39">
         <v>1.25</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="77">
-        <v>1</v>
-      </c>
-      <c r="G23" s="38"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="55">
+      <c r="F23" s="76">
+        <v>1</v>
+      </c>
+      <c r="G23" s="37"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="54">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="75">
+      <c r="A24" s="74">
         <v>90</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="39">
         <v>0.15</v>
       </c>
-      <c r="E24" s="38" t="s">
+      <c r="E24" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="40">
         <v>4.5</v>
       </c>
-      <c r="G24" s="38"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="55">
+      <c r="G24" s="37"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="54">
         <f t="shared" si="0"/>
         <v>0.67499999999999993</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="75">
+      <c r="A25" s="74">
         <v>100</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="75" t="s">
+      <c r="C25" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="D25" s="40">
+      <c r="D25" s="39">
         <v>0.15</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="97">
+      <c r="F25" s="91">
         <f>F17+F18+F19</f>
         <v>486</v>
       </c>
-      <c r="G25" s="38"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="55">
+      <c r="G25" s="37"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="54">
         <f t="shared" si="0"/>
         <v>72.899999999999991</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H26" s="73" t="s">
+    <row r="26" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="I26" s="74">
+      <c r="I26" s="97">
         <f>SUM(I16:I25)</f>
         <v>82.154999999999987</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H27" s="59"/>
-      <c r="I27" s="78"/>
-    </row>
-    <row r="28" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="61" t="s">
+      <c r="H27" s="58"/>
+      <c r="I27" s="77"/>
+    </row>
+    <row r="28" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="61" t="s">
+      <c r="D28" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="61" t="s">
+      <c r="E28" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="61" t="s">
+      <c r="F28" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="61" t="s">
+      <c r="G28" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="H28" s="61" t="s">
+      <c r="H28" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="I28" s="61" t="s">
+      <c r="I28" s="96" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="37">
+      <c r="A29" s="36">
         <v>10</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="43">
+      <c r="C29" s="36"/>
+      <c r="D29" s="42">
         <v>500</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E29" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F29" s="36">
         <v>10</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G29" s="36">
         <v>3000</v>
       </c>
-      <c r="H29" s="37">
-        <v>1</v>
-      </c>
-      <c r="I29" s="55">
+      <c r="H29" s="36">
+        <v>1</v>
+      </c>
+      <c r="I29" s="54">
         <f>D29*F29/G29*H29</f>
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H30" s="73" t="s">
+    <row r="30" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="I30" s="79">
+      <c r="I30" s="99">
         <f>SUM(I29:I29)</f>
         <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H31" s="59"/>
-      <c r="I31" s="78"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="77"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4408,7 +4395,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="78" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4434,7 +4421,9 @@
   </sheetPr>
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="49" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="49" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4466,7 +4455,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -4475,13 +4464,13 @@
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="94" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="4">
         <v>81</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="92" t="s">
         <v>21</v>
       </c>
       <c r="N1" s="8">
@@ -4490,16 +4479,16 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="92" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="92" t="s">
         <v>7</v>
       </c>
       <c r="N2" s="6">
@@ -4507,33 +4496,33 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="92" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="92" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="92" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="92" t="s">
         <v>13</v>
       </c>
       <c r="N4" s="8">
@@ -4542,18 +4531,19 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="92" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="J5" s="92" t="s">
         <v>16</v>
       </c>
+      <c r="M5" s="95"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="92" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -4561,84 +4551,84 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="92" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="61" t="s">
+    <row r="9" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="61" t="s">
+      <c r="H9" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="61" t="s">
+      <c r="K9" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="61" t="s">
+      <c r="L9" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="61" t="s">
+      <c r="M9" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="61" t="s">
+      <c r="N9" s="96" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="37">
+      <c r="A10" s="36">
         <v>10</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="39">
         <v>4.2</v>
       </c>
-      <c r="E10" s="87">
+      <c r="E10" s="84">
         <f>J10*K10*L10</f>
         <v>7.9874993217520493E-2</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="37"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="19"/>
-      <c r="I10" s="64" t="s">
+      <c r="I10" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="27">
         <f>PI()*50*50/4/1000000</f>
         <v>1.9634954084936209E-3</v>
       </c>
-      <c r="K10" s="88">
+      <c r="K10" s="85">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="L10" s="22">
@@ -4647,59 +4637,59 @@
       <c r="M10" s="22">
         <v>1</v>
       </c>
-      <c r="N10" s="55">
+      <c r="N10" s="54">
         <f>IF(J10="",D10*M10,D10*J10*K10*L10*M10)</f>
         <v>0.33547497151358602</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="37">
+      <c r="A11" s="36">
         <v>20</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="40">
+      <c r="C11" s="83"/>
+      <c r="D11" s="39">
         <v>15</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="19"/>
-      <c r="I11" s="89"/>
+      <c r="I11" s="86"/>
       <c r="J11" s="21"/>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
       <c r="M11" s="22">
         <v>1</v>
       </c>
-      <c r="N11" s="55">
+      <c r="N11" s="54">
         <f>IF(J11="",D11*M11,D11*J11*K11*L11*M11)</f>
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="37">
+      <c r="A12" s="36">
         <v>30</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="40">
+      <c r="C12" s="89"/>
+      <c r="D12" s="39">
         <f>0.18*E12</f>
         <v>2.52</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="36">
         <v>14</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="37"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="19"/>
-      <c r="I12" s="89"/>
+      <c r="I12" s="86"/>
       <c r="J12" s="21"/>
       <c r="K12" s="19">
         <v>0.59</v>
@@ -4708,224 +4698,224 @@
       <c r="M12" s="22">
         <v>1</v>
       </c>
-      <c r="N12" s="55">
+      <c r="N12" s="54">
         <f>K12*D12</f>
         <v>1.4867999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37">
+      <c r="A13" s="36">
         <v>40</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="39">
         <f>0.032*E13*G13+1.33</f>
         <v>7.6020000000000003</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="36">
         <v>14</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="36">
         <v>14</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="89"/>
+      <c r="I13" s="86"/>
       <c r="J13" s="21"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
       <c r="M13" s="22">
         <v>1</v>
       </c>
-      <c r="N13" s="55">
+      <c r="N13" s="54">
         <f>M13*D13</f>
         <v>7.6020000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="M14" s="95" t="s">
+    <row r="14" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M14" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="96">
+      <c r="N14" s="100">
         <f>SUM(N10:N13)</f>
         <v>24.424274971513587</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="61" t="s">
+    <row r="16" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D16" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="61" t="s">
+      <c r="F16" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="61" t="s">
+      <c r="G16" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="61" t="s">
+      <c r="H16" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="61" t="s">
+      <c r="I16" s="96" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="41">
+      <c r="A17" s="40">
         <v>10</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="40">
+      <c r="C17" s="40"/>
+      <c r="D17" s="39">
         <v>1.3</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="41">
-        <v>1</v>
-      </c>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="55">
+      <c r="F17" s="40">
+        <v>1</v>
+      </c>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="54">
         <f>IF(H17="",D17*F17,D17*F17*H17)</f>
         <v>1.3</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="37">
+      <c r="A18" s="36">
         <v>20</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="40">
+      <c r="C18" s="36"/>
+      <c r="D18" s="39">
         <v>0.04</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="77">
+      <c r="F18" s="76">
         <v>12</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="H18" s="41">
-        <v>1</v>
-      </c>
-      <c r="I18" s="55">
+      <c r="H18" s="40">
+        <v>1</v>
+      </c>
+      <c r="I18" s="54">
         <f>IF(H18="",D18*F18,D18*F18*H18)</f>
         <v>0.48</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="37">
+      <c r="A19" s="36">
         <v>30</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="40">
+      <c r="C19" s="36"/>
+      <c r="D19" s="39">
         <v>0.1</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="77">
+      <c r="F19" s="76">
         <v>50</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="41">
-        <v>1</v>
-      </c>
-      <c r="I19" s="55">
+      <c r="H19" s="40">
+        <v>1</v>
+      </c>
+      <c r="I19" s="54">
         <f>IF(H19="",D19*F19,D19*F19*H19)</f>
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="37">
+      <c r="A20" s="36">
         <v>40</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D20" s="39">
         <v>0.35</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="77">
-        <v>1</v>
-      </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="55">
+      <c r="F20" s="76">
+        <v>1</v>
+      </c>
+      <c r="G20" s="37"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="54">
         <f>IF(H20="",D20*F20,D20*F20*H20)</f>
         <v>0.35</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="37">
+      <c r="A21" s="36">
         <v>50</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="39">
         <v>0.13</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="77">
-        <v>1</v>
-      </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="55">
+      <c r="F21" s="76">
+        <v>1</v>
+      </c>
+      <c r="G21" s="37"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="54">
         <f>IF(H21="",D21*F21,D21*F21*H21)</f>
         <v>0.13</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H22" s="73" t="s">
+    <row r="22" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="I22" s="74">
+      <c r="I22" s="97">
         <f>SUM(I17:I21)</f>
         <v>7.26</v>
       </c>
@@ -4954,7 +4944,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="I38" sqref="A38:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4987,7 +4977,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -4996,13 +4986,13 @@
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="94" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="4">
         <v>81</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="92" t="s">
         <v>21</v>
       </c>
       <c r="N1" s="8">
@@ -5011,17 +5001,17 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="92" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="91" t="s">
+      <c r="C2" s="87"/>
+      <c r="D2" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="92" t="s">
         <v>7</v>
       </c>
       <c r="N2" s="6">
@@ -5029,33 +5019,33 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="92" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="92" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="92" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="92" t="s">
         <v>13</v>
       </c>
       <c r="N4" s="8">
@@ -5064,18 +5054,18 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="92" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="J5" s="92" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="92" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -5083,818 +5073,818 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="92" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="61" t="s">
+    <row r="9" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61" t="s">
+      <c r="F9" s="96"/>
+      <c r="G9" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="61" t="s">
+      <c r="H9" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="61" t="s">
+      <c r="K9" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="61" t="s">
+      <c r="L9" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="61" t="s">
+      <c r="M9" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="61" t="s">
+      <c r="N9" s="96" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="29">
+      <c r="A10" s="28">
         <v>10</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="29">
         <f>4.2</f>
         <v>4.2</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="62">
         <f>J10*K10*L10</f>
         <v>8.2431782400000042E-2</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="64" t="s">
+      <c r="G10" s="28"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="J10" s="66">
+      <c r="J10" s="65">
         <f>(3.14*22.5*22.5-3.14*21.5*21.5)/1000000</f>
         <v>1.3816000000000007E-4</v>
       </c>
-      <c r="K10" s="69">
+      <c r="K10" s="68">
         <v>0.22</v>
       </c>
-      <c r="L10" s="81">
+      <c r="L10" s="79">
         <v>2712</v>
       </c>
-      <c r="M10" s="82">
-        <v>1</v>
-      </c>
-      <c r="N10" s="83">
+      <c r="M10" s="80">
+        <v>1</v>
+      </c>
+      <c r="N10" s="81">
         <f>IF(J10="",D10*M10,D10*J10*K10*L10*M10)</f>
         <v>0.34621348608000019</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="29">
+      <c r="A11" s="28">
         <v>20</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="29">
         <f>4.2</f>
         <v>4.2</v>
       </c>
-      <c r="E11" s="63">
+      <c r="E11" s="62">
         <f>J11*K11*L11</f>
         <v>1.6690732800000014E-2</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="66">
+      <c r="G11" s="28"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="65">
         <f>(3.14*25*25-3.14*24*24)/1000000</f>
         <v>1.5386000000000013E-4</v>
       </c>
-      <c r="K11" s="69">
+      <c r="K11" s="68">
         <v>0.04</v>
       </c>
-      <c r="L11" s="81">
+      <c r="L11" s="79">
         <v>2712</v>
       </c>
-      <c r="M11" s="82">
-        <v>1</v>
-      </c>
-      <c r="N11" s="83">
+      <c r="M11" s="80">
+        <v>1</v>
+      </c>
+      <c r="N11" s="81">
         <f>IF(J11="",D11*M11,D11*J11*K11*L11*M11)</f>
         <v>7.0101077760000061E-2</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="29">
+      <c r="A12" s="28">
         <v>30</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="29">
         <f>4.2</f>
         <v>4.2</v>
       </c>
-      <c r="E12" s="63">
+      <c r="E12" s="62">
         <v>1E-3</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="64" t="s">
+      <c r="G12" s="28"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="J12" s="66"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="82">
+      <c r="J12" s="65"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="80">
         <v>2</v>
       </c>
-      <c r="N12" s="83">
+      <c r="N12" s="81">
         <f>M12*D12*E12</f>
         <v>8.4000000000000012E-3</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="29">
+      <c r="A13" s="28">
         <v>40</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="29">
         <f>0.47*E13</f>
         <v>5.64</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="28">
         <v>12</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="28">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H13" s="68" t="s">
+      <c r="H13" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="I13" s="92"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="82">
+      <c r="I13" s="88"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="80">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N13" s="83">
+      <c r="N13" s="81">
         <f>IF(J13="",D13*M13,D13*J13*K13*L13*M13)</f>
         <v>0.78960000000000008</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="29">
+      <c r="A14" s="28">
         <v>40</v>
       </c>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="29">
         <f>0.47*E14</f>
         <v>25.849999999999998</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="28">
         <v>55</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="28">
         <v>0.11</v>
       </c>
-      <c r="H14" s="68" t="s">
+      <c r="H14" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="I14" s="92"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="82">
+      <c r="I14" s="88"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="80">
         <v>0.11</v>
       </c>
-      <c r="N14" s="83">
+      <c r="N14" s="81">
         <f>IF(J14="",D14*M14,D14*J14*K14*L14*M14)</f>
         <v>2.8434999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="M15" s="73" t="s">
+    <row r="15" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M15" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="74">
+      <c r="N15" s="97">
         <f>SUM(N10:N14)</f>
         <v>4.0578145638400001</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="61" t="s">
+    <row r="17" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="61" t="s">
+      <c r="E17" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="61" t="s">
+      <c r="F17" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="61" t="s">
+      <c r="G17" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="61" t="s">
+      <c r="H17" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="61" t="s">
+      <c r="I17" s="96" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="41">
+      <c r="A18" s="40">
         <v>10</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="39">
         <v>0.15</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="40">
         <v>8</v>
       </c>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="55">
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="54">
         <f t="shared" ref="I18:I26" si="0">IF(H18="",D18*F18,D18*F18*H18)</f>
         <v>1.2</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="37">
+      <c r="A19" s="36">
         <v>20</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="39">
         <v>1.3</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="37">
-        <v>1</v>
-      </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="55">
+      <c r="F19" s="36">
+        <v>1</v>
+      </c>
+      <c r="G19" s="37"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="54">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="41">
+      <c r="A20" s="40">
         <v>30</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D20" s="39">
         <v>0.35</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="41">
-        <v>1</v>
-      </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="55">
+      <c r="F20" s="40">
+        <v>1</v>
+      </c>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="54">
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="37">
+      <c r="A21" s="36">
         <v>40</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="39">
         <v>1.3</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="37">
-        <v>1</v>
-      </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="55">
+      <c r="F21" s="36">
+        <v>1</v>
+      </c>
+      <c r="G21" s="37"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="54">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="41">
+      <c r="A22" s="40">
         <v>50</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22" s="39">
         <v>0.35</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="41">
-        <v>1</v>
-      </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="55">
+      <c r="F22" s="40">
+        <v>1</v>
+      </c>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="54">
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="37">
+      <c r="A23" s="36">
         <v>60</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="40">
+      <c r="D23" s="39">
         <v>0.1</v>
       </c>
-      <c r="E23" s="38" t="s">
+      <c r="E23" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="41">
-        <v>1</v>
-      </c>
-      <c r="G23" s="41" t="s">
+      <c r="F23" s="40">
+        <v>1</v>
+      </c>
+      <c r="G23" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="H23" s="41">
-        <v>1</v>
-      </c>
-      <c r="I23" s="55">
+      <c r="H23" s="40">
+        <v>1</v>
+      </c>
+      <c r="I23" s="54">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="41">
+      <c r="A24" s="40">
         <v>70</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="39">
         <f>1.3</f>
         <v>1.3</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="36">
         <v>2</v>
       </c>
-      <c r="G24" s="38"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="55">
+      <c r="G24" s="37"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="54">
         <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="37">
+      <c r="A25" s="36">
         <v>80</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="40">
+      <c r="D25" s="39">
         <v>0.35</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="41">
+      <c r="F25" s="40">
         <v>2</v>
       </c>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="55">
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="54">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="41">
+      <c r="A26" s="40">
         <v>90</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="40">
+      <c r="D26" s="39">
         <v>0.15</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="40">
         <v>10</v>
       </c>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="55">
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="54">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="37">
+      <c r="A27" s="36">
         <v>100</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="75" t="s">
+      <c r="C27" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="D27" s="40">
+      <c r="D27" s="39">
         <v>0.06</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="41">
+      <c r="F27" s="40">
         <v>4</v>
       </c>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="55">
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="54">
         <f t="shared" ref="I27:I29" si="1">IF(H27="",D27*F27,D27*F27*H27)</f>
         <v>0.24</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="41">
+      <c r="A28" s="40">
         <v>110</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="75" t="s">
+      <c r="C28" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="D28" s="40">
+      <c r="D28" s="39">
         <v>0.19</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="41">
+      <c r="F28" s="40">
         <v>6</v>
       </c>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="55">
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="54">
         <f t="shared" si="1"/>
         <v>1.1400000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="37">
+      <c r="A29" s="36">
         <v>120</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="D29" s="40">
+      <c r="D29" s="39">
         <v>0.5</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E29" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F29" s="36">
         <v>4</v>
       </c>
-      <c r="G29" s="38"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="55">
+      <c r="G29" s="37"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H30" s="73" t="s">
+    <row r="30" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="I30" s="74">
+      <c r="I30" s="97">
         <f>SUM(I18:I29)</f>
         <v>12.78</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="61" t="s">
+    <row r="32" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="61" t="s">
+      <c r="D32" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="61" t="s">
+      <c r="E32" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="61" t="s">
+      <c r="F32" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="61" t="s">
+      <c r="G32" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="H32" s="61" t="s">
+      <c r="H32" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="I32" s="61" t="s">
+      <c r="I32" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="J32" s="61" t="s">
+      <c r="J32" s="96" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="37">
+      <c r="A33" s="36">
         <v>10</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="40">
+      <c r="D33" s="39">
         <f>0.004*E33+0.5</f>
         <v>0.54</v>
       </c>
-      <c r="E33" s="37">
+      <c r="E33" s="36">
         <v>10</v>
       </c>
-      <c r="F33" s="53" t="s">
+      <c r="F33" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="37"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="84">
+      <c r="G33" s="36"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="82">
         <v>2</v>
       </c>
-      <c r="J33" s="55">
+      <c r="J33" s="54">
         <f>I33*D33</f>
         <v>1.08</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="37">
+      <c r="A34" s="36">
         <v>20</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="D34" s="40">
+      <c r="D34" s="39">
         <f>0.004*E34+0.5</f>
         <v>0.72</v>
       </c>
-      <c r="E34" s="37">
+      <c r="E34" s="36">
         <v>55</v>
       </c>
-      <c r="F34" s="53" t="s">
+      <c r="F34" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="G34" s="37"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="84">
-        <v>1</v>
-      </c>
-      <c r="J34" s="55">
+      <c r="G34" s="36"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="82">
+        <v>1</v>
+      </c>
+      <c r="J34" s="54">
         <f>I34*D34</f>
         <v>0.72</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="37">
+      <c r="A35" s="36">
         <v>30</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="D35" s="40">
+      <c r="D35" s="39">
         <f>0.004*E35+0.5</f>
         <v>0.72</v>
       </c>
-      <c r="E35" s="37">
+      <c r="E35" s="36">
         <v>55</v>
       </c>
-      <c r="F35" s="53" t="s">
+      <c r="F35" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="G35" s="37"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="84">
-        <v>1</v>
-      </c>
-      <c r="J35" s="55">
+      <c r="G35" s="36"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="82">
+        <v>1</v>
+      </c>
+      <c r="J35" s="54">
         <f>I35*D35</f>
         <v>0.72</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="I36" s="73" t="s">
+    <row r="36" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I36" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="J36" s="74">
+      <c r="J36" s="97">
         <f>SUM(J33:J35)</f>
         <v>2.52</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H37" s="59"/>
-      <c r="I37" s="78"/>
-    </row>
-    <row r="38" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="61" t="s">
+      <c r="H37" s="58"/>
+      <c r="I37" s="77"/>
+    </row>
+    <row r="38" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="61" t="s">
+      <c r="B38" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="61" t="s">
+      <c r="D38" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="61" t="s">
+      <c r="E38" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="61" t="s">
+      <c r="F38" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="61" t="s">
+      <c r="G38" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="H38" s="61" t="s">
+      <c r="H38" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="I38" s="61" t="s">
+      <c r="I38" s="96" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="37">
+      <c r="A39" s="36">
         <v>10</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="43">
+      <c r="C39" s="36"/>
+      <c r="D39" s="42">
         <v>500</v>
       </c>
-      <c r="E39" s="37" t="s">
+      <c r="E39" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="F39" s="37">
+      <c r="F39" s="36">
         <v>6</v>
       </c>
-      <c r="G39" s="37">
+      <c r="G39" s="36">
         <v>3000</v>
       </c>
-      <c r="H39" s="37">
-        <v>1</v>
-      </c>
-      <c r="I39" s="55">
+      <c r="H39" s="36">
+        <v>1</v>
+      </c>
+      <c r="I39" s="54">
         <f>D39*F39/G39*H39</f>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H40" s="73" t="s">
+    <row r="40" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H40" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="I40" s="85">
+      <c r="I40" s="103">
         <f>SUM(I39:I39)</f>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H41" s="59"/>
-      <c r="I41" s="78"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="77"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5919,8 +5909,8 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="49" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="49" workbookViewId="0">
+      <selection activeCell="I13" sqref="A13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5953,7 +5943,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -5962,13 +5952,13 @@
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="94" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="4">
         <v>81</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="92" t="s">
         <v>21</v>
       </c>
       <c r="N1" s="8">
@@ -5977,19 +5967,19 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="92" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="92" t="s">
         <v>7</v>
       </c>
       <c r="N2" s="6">
@@ -5997,33 +5987,33 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="92" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="92" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="92" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="92" t="s">
         <v>13</v>
       </c>
       <c r="N4" s="8">
@@ -6032,18 +6022,18 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="92" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="J5" s="92" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="92" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -6051,198 +6041,198 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="92" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="61" t="s">
+    <row r="9" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61" t="s">
+      <c r="F9" s="96"/>
+      <c r="G9" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="61" t="s">
+      <c r="H9" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="61" t="s">
+      <c r="K9" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="61" t="s">
+      <c r="L9" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="61" t="s">
+      <c r="M9" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="61" t="s">
+      <c r="N9" s="96" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="29">
+      <c r="A10" s="28">
         <v>10</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="30">
+      <c r="C10" s="43"/>
+      <c r="D10" s="29">
         <v>2.25</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="62">
         <f>J10*K10*L10</f>
         <v>1.4836500000000001E-2</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="64" t="s">
+      <c r="G10" s="28"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="J10" s="66">
+      <c r="J10" s="65">
         <f>30*42/1000000</f>
         <v>1.2600000000000001E-3</v>
       </c>
-      <c r="K10" s="69">
+      <c r="K10" s="68">
         <f>1.5/1000</f>
         <v>1.5E-3</v>
       </c>
-      <c r="L10" s="81">
+      <c r="L10" s="79">
         <v>7850</v>
       </c>
-      <c r="M10" s="82">
-        <v>1</v>
-      </c>
-      <c r="N10" s="83">
+      <c r="M10" s="80">
+        <v>1</v>
+      </c>
+      <c r="N10" s="81">
         <f>IF(J10="",D10*M10,D10*J10*K10*L10*M10)</f>
         <v>3.3382125000000006E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="M11" s="73" t="s">
+    <row r="11" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="74">
+      <c r="N11" s="97">
         <f>SUM(N10:N10)</f>
         <v>3.3382125000000006E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="61" t="s">
+    <row r="13" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="61" t="s">
+      <c r="E13" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="61" t="s">
+      <c r="H13" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="61" t="s">
+      <c r="I13" s="96" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="41">
+      <c r="A14" s="40">
         <v>10</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="40">
+      <c r="C14" s="40"/>
+      <c r="D14" s="39">
         <v>1.3</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="41">
-        <v>1</v>
-      </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41">
-        <v>1</v>
-      </c>
-      <c r="I14" s="83">
+      <c r="F14" s="40">
+        <v>1</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40">
+        <v>1</v>
+      </c>
+      <c r="I14" s="81">
         <f>IF(H14="",D14*F14,D14*F14*H14)</f>
         <v>1.3</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="37">
+      <c r="A15" s="36">
         <v>20</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="40">
+      <c r="C15" s="36"/>
+      <c r="D15" s="39">
         <v>0.01</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="36">
         <v>13.5</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="H15" s="41">
+      <c r="H15" s="40">
         <v>3</v>
       </c>
-      <c r="I15" s="83">
+      <c r="I15" s="81">
         <f>IF(H15="",D15*F15,D15*F15*H15)</f>
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H16" s="73" t="s">
+    <row r="16" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="74">
+      <c r="I16" s="97">
         <f>SUM(I14:I15)</f>
         <v>1.7050000000000001</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H17" s="59"/>
-      <c r="I17" s="78"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="77"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6272,7 +6262,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="78" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6332,7 +6322,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -6341,13 +6331,13 @@
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="57" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="4">
         <v>81</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="56" t="s">
         <v>21</v>
       </c>
       <c r="N1" s="8">
@@ -6356,19 +6346,19 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="56" t="s">
         <v>7</v>
       </c>
       <c r="N2" s="6">
@@ -6376,33 +6366,33 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="56" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="56" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="56" t="s">
         <v>13</v>
       </c>
       <c r="N4" s="8">
@@ -6411,18 +6401,18 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="56" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="J5" s="56" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="56" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -6430,198 +6420,198 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="56" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="61" t="s">
+    <row r="9" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61" t="s">
+      <c r="F9" s="60"/>
+      <c r="G9" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="61" t="s">
+      <c r="H9" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I9" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="61" t="s">
+      <c r="K9" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="61" t="s">
+      <c r="L9" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="61" t="s">
+      <c r="M9" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="61" t="s">
+      <c r="N9" s="60" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="29">
+      <c r="A10" s="28">
         <v>10</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="30">
+      <c r="C10" s="43"/>
+      <c r="D10" s="29">
         <v>2.25</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="62">
         <f>J10*K10*L10</f>
         <v>2.2608000000000003E-2</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="64" t="s">
+      <c r="G10" s="28"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="J10" s="66">
+      <c r="J10" s="65">
         <f>48*30/1000000</f>
         <v>1.4400000000000001E-3</v>
       </c>
-      <c r="K10" s="69">
+      <c r="K10" s="68">
         <f>2/1000</f>
         <v>2E-3</v>
       </c>
-      <c r="L10" s="81">
+      <c r="L10" s="79">
         <v>7850</v>
       </c>
-      <c r="M10" s="82">
-        <v>1</v>
-      </c>
-      <c r="N10" s="83">
+      <c r="M10" s="80">
+        <v>1</v>
+      </c>
+      <c r="N10" s="81">
         <f>IF(J10="",D10*M10,D10*J10*K10*L10*M10)</f>
         <v>5.0868000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="M11" s="73" t="s">
+    <row r="11" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="74">
+      <c r="N11" s="73">
         <f>SUM(N10:N10)</f>
         <v>5.0868000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="61" t="s">
+    <row r="13" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="61" t="s">
+      <c r="E13" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="61" t="s">
+      <c r="H13" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="61" t="s">
+      <c r="I13" s="60" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="41">
+      <c r="A14" s="40">
         <v>10</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="40">
+      <c r="C14" s="40"/>
+      <c r="D14" s="39">
         <v>1.3</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="41">
-        <v>1</v>
-      </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41">
-        <v>1</v>
-      </c>
-      <c r="I14" s="83">
+      <c r="F14" s="40">
+        <v>1</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40">
+        <v>1</v>
+      </c>
+      <c r="I14" s="81">
         <f>IF(H14="",D14*F14,D14*F14*H14)</f>
         <v>1.3</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="37">
+      <c r="A15" s="36">
         <v>20</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="40">
+      <c r="C15" s="36"/>
+      <c r="D15" s="39">
         <v>0.01</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="36">
         <v>17.8</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="H15" s="41">
+      <c r="H15" s="40">
         <v>3</v>
       </c>
-      <c r="I15" s="83">
+      <c r="I15" s="81">
         <f>IF(H15="",D15*F15,D15*F15*H15)</f>
         <v>0.53400000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H16" s="73" t="s">
+    <row r="16" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="74">
+      <c r="I16" s="73">
         <f>SUM(I14:I15)</f>
         <v>1.8340000000000001</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H17" s="59"/>
-      <c r="I17" s="78"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="77"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6651,7 +6641,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="78" t="s">
         <v>140</v>
       </c>
     </row>

--- a/EN - Engine & Powertrain/Cost/EN_A0500.xlsx
+++ b/EN - Engine & Powertrain/Cost/EN_A0500.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452" tabRatio="779" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452" tabRatio="779" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="EN A0005" sheetId="1" r:id="rId1"/>
@@ -675,24 +675,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -703,6 +691,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D79B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,9 +782,8 @@
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -802,16 +795,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -845,7 +833,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -864,16 +851,9 @@
     <xf numFmtId="39" fontId="3" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="171" fontId="3" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -889,10 +869,6 @@
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -923,24 +899,33 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -960,6 +945,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC4D79B"/>
+      <color rgb="FF76933C"/>
       <color rgb="FFD8E4BC"/>
       <color rgb="FFD8FFCC"/>
     </mruColors>
@@ -2495,69 +2482,70 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF92D04F"/>
+    <tabColor rgb="FF76933C"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="49" zoomScalePageLayoutView="49" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A13" zoomScale="75" zoomScaleNormal="49" zoomScalePageLayoutView="49" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.33203125" style="2"/>
+    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="3">
         <v>81</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="5">
+      <c r="N1" s="4">
         <f>E14+N21+I36+J46+I50</f>
-        <v>203.49199448376947</v>
+        <v>201.49199448376947</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="C2" s="93"/>
+      <c r="M2" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2565,10 +2553,11 @@
       <c r="A3" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="C3" s="93"/>
+      <c r="J3" s="92" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2576,28 +2565,28 @@
       <c r="A4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <f>N1*N2</f>
-        <v>203.49199448376947</v>
+        <v>201.49199448376947</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="92" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2605,1027 +2594,1027 @@
       <c r="A6" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="92" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9" s="8">
         <v>10</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <f>'EN 05001'!N1</f>
         <v>103.67125799008251</v>
       </c>
-      <c r="D9" s="13">
-        <v>1</v>
-      </c>
-      <c r="E9" s="14">
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12">
         <f t="shared" ref="E9:E13" si="0">C9*D9</f>
         <v>103.67125799008251</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="8">
         <v>20</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <f>'EN 05002'!N1</f>
         <v>31.684274971513588</v>
       </c>
-      <c r="D10" s="13">
-        <v>1</v>
-      </c>
-      <c r="E10" s="14">
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12">
         <f t="shared" si="0"/>
         <v>31.684274971513588</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="8">
         <v>30</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <f>'EN 05003'!N1</f>
-        <v>20.357814563839998</v>
-      </c>
-      <c r="D11" s="13">
-        <v>1</v>
-      </c>
-      <c r="E11" s="14">
+        <v>18.357814563839998</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12">
         <f t="shared" si="0"/>
-        <v>20.357814563839998</v>
+        <v>18.357814563839998</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="8">
         <v>40</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="10">
         <f>'EN 05004'!N1</f>
         <v>1.738382125</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="11">
         <v>2</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="12">
         <f t="shared" si="0"/>
         <v>3.47676425</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="A13" s="8">
         <v>50</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="10">
         <f>'EN 05005'!N1</f>
         <v>1.884868</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="11">
         <v>2</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="12">
         <f t="shared" si="0"/>
         <v>3.769736</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="92">
         <f>SUM(E9:E13)</f>
-        <v>162.95984777543612</v>
+        <v>160.95984777543612</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="M16" s="9" t="s">
+      <c r="M16" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="N16" s="92" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="17">
+      <c r="A17" s="13">
         <v>10</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="14">
         <f>0.27*E17</f>
         <v>5.4</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="8">
         <v>20</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="22">
+      <c r="G17" s="8"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="18">
         <v>4</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="10">
         <f>M17*D17</f>
         <v>21.6</v>
       </c>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="24"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="20"/>
     </row>
     <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="17">
+      <c r="A18" s="13">
         <v>20</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="25">
         <f>0.47*E18</f>
         <v>20.68</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="24">
         <v>44</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="31">
+      <c r="G18" s="24"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="27">
         <v>0.15</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N18" s="10">
         <f>M18*D18</f>
         <v>3.1019999999999999</v>
       </c>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="24"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="20"/>
     </row>
     <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="17">
+      <c r="A19" s="13">
         <v>30</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="25">
         <v>0.05</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="22">
-        <v>1</v>
-      </c>
-      <c r="N19" s="12">
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="18">
+        <v>1</v>
+      </c>
+      <c r="N19" s="10">
         <f>M19*D19</f>
         <v>0.05</v>
       </c>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="24"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="20"/>
     </row>
     <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="17">
+      <c r="A20" s="13">
         <v>40</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="25">
         <v>10</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="28">
         <f>106.435/10000</f>
         <v>1.06435E-2</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="28"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="32">
+      <c r="G20" s="24"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="28">
         <f>106.435/10000</f>
         <v>1.06435E-2</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="10">
         <f>M20*D20</f>
         <v>0.106435</v>
       </c>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-    </row>
-    <row r="21" spans="1:20" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="M21" s="15" t="s">
+      <c r="P20" s="19"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+    </row>
+    <row r="21" spans="1:20" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M21" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="N21" s="16">
+      <c r="N21" s="97">
         <f>SUM(N17:N20)</f>
         <v>24.858435000000004</v>
       </c>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-    </row>
-    <row r="23" spans="1:20" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+    </row>
+    <row r="23" spans="1:20" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="94" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="36">
+      <c r="A24" s="32">
         <v>10</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="39">
+      <c r="D24" s="35">
         <v>0.15</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="36">
         <v>9.83</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10">
-        <v>1</v>
-      </c>
-      <c r="I24" s="12">
+      <c r="G24" s="8"/>
+      <c r="H24" s="8">
+        <v>1</v>
+      </c>
+      <c r="I24" s="10">
         <f>D24*F24*H24</f>
         <v>1.4744999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36">
+      <c r="A25" s="32">
         <v>20</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="35">
         <v>5.25</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="28">
         <f>106.435/10000</f>
         <v>1.06435E-2</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10">
-        <v>1</v>
-      </c>
-      <c r="I25" s="12">
+      <c r="G25" s="8"/>
+      <c r="H25" s="8">
+        <v>1</v>
+      </c>
+      <c r="I25" s="10">
         <f>D25*F25*H25</f>
         <v>5.5878375000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="36">
+      <c r="A26" s="32">
         <v>30</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="39">
+      <c r="D26" s="35">
         <v>0.06</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="40">
+      <c r="F26" s="36">
         <v>4</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10">
-        <v>1</v>
-      </c>
-      <c r="I26" s="12">
+      <c r="G26" s="8"/>
+      <c r="H26" s="8">
+        <v>1</v>
+      </c>
+      <c r="I26" s="10">
         <f>D26*F26*H26</f>
         <v>0.24</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="36">
+      <c r="A27" s="32">
         <v>40</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="42">
+      <c r="D27" s="38">
         <v>0.75</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="40">
+      <c r="F27" s="36">
         <v>4</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10">
-        <v>1</v>
-      </c>
-      <c r="I27" s="12">
+      <c r="G27" s="8"/>
+      <c r="H27" s="8">
+        <v>1</v>
+      </c>
+      <c r="I27" s="10">
         <f t="shared" ref="I27:I35" si="1">D27*F27*H27</f>
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="36">
+      <c r="A28" s="32">
         <v>50</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="39">
+      <c r="D28" s="35">
         <v>0.38</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="40">
-        <v>1</v>
-      </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10">
-        <v>1</v>
-      </c>
-      <c r="I28" s="12">
+      <c r="F28" s="36">
+        <v>1</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8">
+        <v>1</v>
+      </c>
+      <c r="I28" s="10">
         <f t="shared" si="1"/>
         <v>0.38</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="36">
+      <c r="A29" s="32">
         <v>60</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="42">
+      <c r="D29" s="38">
         <v>0.75</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="40">
+      <c r="F29" s="36">
         <v>4</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10">
-        <v>1</v>
-      </c>
-      <c r="I29" s="12">
+      <c r="G29" s="8"/>
+      <c r="H29" s="8">
+        <v>1</v>
+      </c>
+      <c r="I29" s="10">
         <f>D29*F29*H29</f>
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="36">
+      <c r="A30" s="32">
         <v>70</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="38">
         <v>0.25</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="40">
+      <c r="F30" s="36">
         <v>4</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10">
-        <v>1</v>
-      </c>
-      <c r="I30" s="12">
+      <c r="G30" s="8"/>
+      <c r="H30" s="8">
+        <v>1</v>
+      </c>
+      <c r="I30" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L30" s="34"/>
+      <c r="L30" s="30"/>
     </row>
     <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="36">
+      <c r="A31" s="32">
         <v>90</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="D31" s="42">
+      <c r="D31" s="38">
         <v>0.06</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="40">
-        <v>1</v>
-      </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10">
-        <v>1</v>
-      </c>
-      <c r="I31" s="12">
+      <c r="F31" s="36">
+        <v>1</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8">
+        <v>1</v>
+      </c>
+      <c r="I31" s="10">
         <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="36">
+      <c r="A32" s="32">
         <v>110</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="39">
+      <c r="D32" s="35">
         <v>0.5</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F32" s="36">
         <v>2</v>
       </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10">
-        <v>1</v>
-      </c>
-      <c r="I32" s="12">
+      <c r="G32" s="8"/>
+      <c r="H32" s="8">
+        <v>1</v>
+      </c>
+      <c r="I32" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="36">
+      <c r="A33" s="32">
         <v>120</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="39">
+      <c r="D33" s="35">
         <v>0.5</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="40">
-        <v>1</v>
-      </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10">
-        <v>1</v>
-      </c>
-      <c r="I33" s="12">
+      <c r="F33" s="36">
+        <v>1</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8">
+        <v>1</v>
+      </c>
+      <c r="I33" s="10">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="36">
+      <c r="A34" s="32">
         <v>130</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="39">
+      <c r="D34" s="35">
         <v>0.25</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="40">
-        <v>1</v>
-      </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10">
-        <v>1</v>
-      </c>
-      <c r="I34" s="12">
+      <c r="F34" s="36">
+        <v>1</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8">
+        <v>1</v>
+      </c>
+      <c r="I34" s="10">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="36">
+      <c r="A35" s="32">
         <v>140</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="D35" s="39">
+      <c r="D35" s="35">
         <v>0.75</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="40">
+      <c r="F35" s="36">
         <v>2</v>
       </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10">
-        <v>1</v>
-      </c>
-      <c r="I35" s="12">
+      <c r="G35" s="8"/>
+      <c r="H35" s="8">
+        <v>1</v>
+      </c>
+      <c r="I35" s="10">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H36" s="15" t="s">
+    <row r="36" spans="1:13" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="I36" s="44">
+      <c r="I36" s="96">
         <f>SUM(I24:I35)</f>
         <v>12.460378374999999</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
+    <row r="38" spans="1:13" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="I38" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="J38" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="M38" s="45"/>
+      <c r="M38" s="40"/>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10">
+      <c r="A39" s="8">
         <v>10</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="D39" s="47">
+      <c r="D39" s="42">
         <v>0.04</v>
       </c>
-      <c r="E39" s="48">
+      <c r="E39" s="43">
         <v>6</v>
       </c>
-      <c r="F39" s="48" t="s">
+      <c r="F39" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="49">
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="44">
         <v>4</v>
       </c>
-      <c r="J39" s="12">
+      <c r="J39" s="10">
         <f t="shared" ref="J39:J45" si="2">I39*D39</f>
         <v>0.16</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10">
+      <c r="A40" s="8">
         <v>20</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="D40" s="47">
+      <c r="D40" s="42">
         <v>0.01</v>
       </c>
-      <c r="E40" s="36">
+      <c r="E40" s="32">
         <v>6</v>
       </c>
-      <c r="F40" s="50" t="s">
+      <c r="F40" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="G40" s="36"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="49">
+      <c r="G40" s="32"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="44">
         <v>8</v>
       </c>
-      <c r="J40" s="12">
+      <c r="J40" s="10">
         <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10">
+      <c r="A41" s="8">
         <v>30</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="39">
+      <c r="D41" s="35">
         <v>0.04</v>
       </c>
-      <c r="E41" s="36">
+      <c r="E41" s="32">
         <v>6</v>
       </c>
-      <c r="F41" s="52" t="s">
+      <c r="F41" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="G41" s="36">
+      <c r="G41" s="32">
         <v>30</v>
       </c>
-      <c r="H41" s="41" t="s">
+      <c r="H41" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I41" s="49">
+      <c r="I41" s="44">
         <v>4</v>
       </c>
-      <c r="J41" s="12">
+      <c r="J41" s="10">
         <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10">
+      <c r="A42" s="8">
         <v>40</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="39">
+      <c r="D42" s="35">
         <v>0.03</v>
       </c>
-      <c r="E42" s="36">
+      <c r="E42" s="32">
         <v>6</v>
       </c>
-      <c r="F42" s="52" t="s">
+      <c r="F42" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="36"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="53">
+      <c r="G42" s="32"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="48">
         <v>5</v>
       </c>
-      <c r="J42" s="12">
+      <c r="J42" s="10">
         <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10">
+      <c r="A43" s="8">
         <v>50</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="43" t="s">
+      <c r="C43" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="39">
+      <c r="D43" s="35">
         <v>0.01</v>
       </c>
-      <c r="E43" s="36">
+      <c r="E43" s="32">
         <v>6</v>
       </c>
-      <c r="F43" s="52" t="s">
+      <c r="F43" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="G43" s="36"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="53">
+      <c r="G43" s="32"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="48">
         <v>5</v>
       </c>
-      <c r="J43" s="12">
+      <c r="J43" s="10">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="10">
+      <c r="A44" s="8">
         <v>60</v>
       </c>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="43" t="s">
+      <c r="C44" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="D44" s="47">
+      <c r="D44" s="42">
         <f>0.004*E44+0.5</f>
         <v>0.72</v>
       </c>
-      <c r="E44" s="36">
+      <c r="E44" s="32">
         <v>55</v>
       </c>
-      <c r="F44" s="50" t="s">
+      <c r="F44" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="G44" s="36"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="49">
-        <v>1</v>
-      </c>
-      <c r="J44" s="12">
+      <c r="G44" s="32"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="44">
+        <v>1</v>
+      </c>
+      <c r="J44" s="10">
         <f t="shared" ref="J44" si="3">I44*D44</f>
         <v>0.72</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10">
+      <c r="A45" s="8">
         <v>70</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="43" t="s">
+      <c r="C45" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="D45" s="47">
+      <c r="D45" s="42">
         <f>0.004*E45+0.5</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="E45" s="36">
+      <c r="E45" s="32">
         <v>15</v>
       </c>
-      <c r="F45" s="50" t="s">
+      <c r="F45" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="G45" s="36"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="49">
-        <v>1</v>
-      </c>
-      <c r="J45" s="12">
+      <c r="G45" s="32"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="44">
+        <v>1</v>
+      </c>
+      <c r="J45" s="10">
         <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I46" s="15" t="s">
+    <row r="46" spans="1:13" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I46" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="J46" s="16">
+      <c r="J46" s="97">
         <f>SUM(J39:J45)</f>
         <v>1.8800000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="G48" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="H48" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="I48" s="9" t="s">
+      <c r="I48" s="94" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="36">
+      <c r="A49" s="32">
         <v>10</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="42">
+      <c r="D49" s="38">
         <v>500</v>
       </c>
-      <c r="E49" s="36" t="s">
+      <c r="E49" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="F49" s="36">
+      <c r="F49" s="32">
         <v>8</v>
       </c>
-      <c r="G49" s="36">
+      <c r="G49" s="32">
         <v>3000</v>
       </c>
-      <c r="H49" s="36">
-        <v>1</v>
-      </c>
-      <c r="I49" s="54">
+      <c r="H49" s="32">
+        <v>1</v>
+      </c>
+      <c r="I49" s="49">
         <f>D49*F49/G49*H49</f>
         <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="15" t="s">
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="I50" s="55">
+      <c r="I50" s="98">
         <f>SUM(I49:I49)</f>
         <v>1.3333333333333333</v>
       </c>
@@ -3651,7 +3640,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFCCFDCC"/>
+    <tabColor rgb="FFC4D79B"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N31"/>
@@ -3662,709 +3651,709 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" style="2"/>
-    <col min="16" max="16" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="7.6640625" style="2"/>
-    <col min="19" max="19" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6640625" style="2"/>
-    <col min="22" max="22" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.6640625" style="2"/>
-    <col min="24" max="25" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="7.6640625" style="2"/>
+    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" style="1"/>
+    <col min="16" max="16" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.6640625" style="1"/>
+    <col min="19" max="19" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" style="1"/>
+    <col min="22" max="22" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.6640625" style="1"/>
+    <col min="24" max="25" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="7.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="94" t="s">
+      <c r="J1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="3">
         <v>81</v>
       </c>
-      <c r="M1" s="92" t="s">
+      <c r="M1" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="8">
+      <c r="N1" s="7">
         <f>N13+I26+I30</f>
         <v>103.67125799008251</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="92" t="s">
+      <c r="M2" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="92" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="92" t="s">
+      <c r="J3" s="80" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="92" t="s">
+      <c r="J4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="92" t="s">
+      <c r="M4" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <f>N1*N2</f>
         <v>103.67125799008251</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="J5" s="92" t="s">
+      <c r="J5" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="95"/>
+      <c r="M5" s="83"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="80" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="96" t="s">
+    <row r="9" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="96" t="s">
+      <c r="D9" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="96" t="s">
+      <c r="E9" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96" t="s">
+      <c r="F9" s="84"/>
+      <c r="G9" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="96" t="s">
+      <c r="H9" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="96" t="s">
+      <c r="I9" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="96" t="s">
+      <c r="J9" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="96" t="s">
+      <c r="K9" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="96" t="s">
+      <c r="L9" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="96" t="s">
+      <c r="M9" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="96" t="s">
+      <c r="N9" s="84" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="28">
+      <c r="A10" s="24">
         <v>10</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="25">
         <v>4.2</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="52">
         <f>J10*K10*L10</f>
         <v>3.7425600000000006</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="24">
         <v>2.5</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="63" t="s">
+      <c r="I10" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="J10" s="64">
+      <c r="J10" s="54">
         <f>460*1200/1000000</f>
         <v>0.55200000000000005</v>
       </c>
-      <c r="K10" s="65">
+      <c r="K10" s="55">
         <f>2.5/1000</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="L10" s="66">
+      <c r="L10" s="56">
         <v>2712</v>
       </c>
-      <c r="M10" s="67">
-        <v>1</v>
-      </c>
-      <c r="N10" s="54">
+      <c r="M10" s="57">
+        <v>1</v>
+      </c>
+      <c r="N10" s="49">
         <f>IF(J10="",D10*M10,D10*J10*K10*L10*M10)</f>
         <v>15.718752000000004</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="28">
+      <c r="A11" s="24">
         <v>20</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="25">
         <v>4.2</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="52">
         <f>J11*K11*L11</f>
         <v>0.10258079128948773</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="24">
         <v>2</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="63" t="s">
+      <c r="I11" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="J11" s="64">
+      <c r="J11" s="54">
         <f>(PI()*22.5*22.5-PI()*20.5*20.5)/1000000</f>
         <v>2.7017696820872241E-4</v>
       </c>
-      <c r="K11" s="68">
+      <c r="K11" s="58">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L11" s="66">
+      <c r="L11" s="56">
         <v>2712</v>
       </c>
-      <c r="M11" s="67">
-        <v>1</v>
-      </c>
-      <c r="N11" s="54">
+      <c r="M11" s="57">
+        <v>1</v>
+      </c>
+      <c r="N11" s="49">
         <f>IF(J11="",D11*M11,D11*J11*K11*L11*M11)</f>
         <v>0.43083932341584852</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="28">
+      <c r="A12" s="24">
         <v>30</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="25">
         <v>1.85</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="24">
         <v>8</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="71">
+      <c r="G12" s="24"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="61">
         <v>2</v>
       </c>
-      <c r="N12" s="54">
+      <c r="N12" s="49">
         <f>IF(J12="",D12*M12,D12*J12*K12*L12*M12)</f>
         <v>3.7</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="M13" s="98" t="s">
+    <row r="13" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M13" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="97">
+      <c r="N13" s="85">
         <f>SUM(N10:N12)</f>
         <v>19.849591323415851</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="96" t="s">
+    <row r="15" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="96" t="s">
+      <c r="D15" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="96" t="s">
+      <c r="E15" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="96" t="s">
+      <c r="F15" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="96" t="s">
+      <c r="G15" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="96" t="s">
+      <c r="H15" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="96" t="s">
+      <c r="I15" s="84" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="74">
+      <c r="A16" s="62">
         <v>10</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="75">
+      <c r="D16" s="63">
         <v>1.3</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="74">
-        <v>1</v>
-      </c>
-      <c r="G16" s="74" t="s">
+      <c r="F16" s="62">
+        <v>1</v>
+      </c>
+      <c r="G16" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="H16" s="74">
-        <v>1</v>
-      </c>
-      <c r="I16" s="54">
+      <c r="H16" s="62">
+        <v>1</v>
+      </c>
+      <c r="I16" s="49">
         <f>IF(H16="",D16*F16,D16*F16*H16)</f>
         <v>1.3</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="36">
+      <c r="A17" s="32">
         <v>20</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="35">
         <v>0.01</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="76">
+      <c r="F17" s="64">
         <v>178</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="40">
-        <v>1</v>
-      </c>
-      <c r="I17" s="54">
+      <c r="H17" s="36">
+        <v>1</v>
+      </c>
+      <c r="I17" s="49">
         <f t="shared" ref="I17:I25" si="0">IF(H17="",D17*F17,D17*F17*H17)</f>
         <v>1.78</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="74">
+      <c r="A18" s="62">
         <v>30</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="35">
         <v>0.01</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="76">
+      <c r="F18" s="64">
         <v>128</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="40">
-        <v>1</v>
-      </c>
-      <c r="I18" s="54">
+      <c r="H18" s="36">
+        <v>1</v>
+      </c>
+      <c r="I18" s="49">
         <f t="shared" si="0"/>
         <v>1.28</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="74">
+      <c r="A19" s="62">
         <v>40</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="35">
         <v>0.01</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="76">
+      <c r="F19" s="64">
         <v>180</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="H19" s="40">
-        <v>1</v>
-      </c>
-      <c r="I19" s="54">
+      <c r="H19" s="36">
+        <v>1</v>
+      </c>
+      <c r="I19" s="49">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="36">
+      <c r="A20" s="32">
         <v>50</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="35">
         <v>0.01</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="76">
+      <c r="F20" s="64">
         <v>42</v>
       </c>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="40">
-        <v>1</v>
-      </c>
-      <c r="I20" s="54">
+      <c r="H20" s="36">
+        <v>1</v>
+      </c>
+      <c r="I20" s="49">
         <f t="shared" ref="I20" si="1">IF(H20="",D20*F20,D20*F20*H20)</f>
         <v>0.42</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="74">
+      <c r="A21" s="62">
         <v>60</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="35">
         <v>0.25</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="F21" s="76">
-        <v>1</v>
-      </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="54">
+      <c r="F21" s="64">
+        <v>1</v>
+      </c>
+      <c r="G21" s="33"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="49">
         <f>IF(H21="",D21*F21,D21*F21*H21)</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="74">
+      <c r="A22" s="62">
         <v>70</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="35">
         <v>0.25</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="76">
+      <c r="F22" s="64">
         <v>2</v>
       </c>
-      <c r="G22" s="37"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="54">
+      <c r="G22" s="33"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="49">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="36">
+      <c r="A23" s="32">
         <v>80</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="35">
         <v>1.25</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="76">
-        <v>1</v>
-      </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="54">
+      <c r="F23" s="64">
+        <v>1</v>
+      </c>
+      <c r="G23" s="33"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="49">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="74">
+      <c r="A24" s="62">
         <v>90</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="39">
+      <c r="D24" s="35">
         <v>0.15</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="36">
         <v>4.5</v>
       </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="54">
+      <c r="G24" s="33"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="49">
         <f t="shared" si="0"/>
         <v>0.67499999999999993</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="74">
+      <c r="A25" s="62">
         <v>100</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="74" t="s">
+      <c r="C25" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="35">
         <v>0.15</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="91">
+      <c r="F25" s="79">
         <f>F17+F18+F19</f>
         <v>486</v>
       </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="54">
+      <c r="G25" s="33"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="49">
         <f t="shared" si="0"/>
         <v>72.899999999999991</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H26" s="98" t="s">
+    <row r="26" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="I26" s="97">
+      <c r="I26" s="85">
         <f>SUM(I16:I25)</f>
         <v>82.154999999999987</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H27" s="58"/>
-      <c r="I27" s="77"/>
-    </row>
-    <row r="28" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="96" t="s">
+      <c r="H27" s="50"/>
+      <c r="I27" s="65"/>
+    </row>
+    <row r="28" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="96" t="s">
+      <c r="B28" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="96" t="s">
+      <c r="C28" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="96" t="s">
+      <c r="D28" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="96" t="s">
+      <c r="E28" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="96" t="s">
+      <c r="F28" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="96" t="s">
+      <c r="G28" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="H28" s="96" t="s">
+      <c r="H28" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="I28" s="96" t="s">
+      <c r="I28" s="84" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="36">
+      <c r="A29" s="32">
         <v>10</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="42">
+      <c r="C29" s="32"/>
+      <c r="D29" s="38">
         <v>500</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="32">
         <v>10</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="32">
         <v>3000</v>
       </c>
-      <c r="H29" s="36">
-        <v>1</v>
-      </c>
-      <c r="I29" s="54">
+      <c r="H29" s="32">
+        <v>1</v>
+      </c>
+      <c r="I29" s="49">
         <f>D29*F29/G29*H29</f>
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H30" s="98" t="s">
+    <row r="30" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="I30" s="99">
+      <c r="I30" s="87">
         <f>SUM(I29:I29)</f>
         <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H31" s="58"/>
-      <c r="I31" s="77"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="65"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4385,7 +4374,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFCCFDCC"/>
+    <tabColor rgb="FFC4D79B"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1"/>
@@ -4395,7 +4384,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="66" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4416,506 +4405,506 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFCCFDCC"/>
+    <tabColor rgb="FFC4D79B"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="49" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:I16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="49" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.21875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" style="2"/>
-    <col min="16" max="16" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="7.6640625" style="2"/>
-    <col min="19" max="19" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6640625" style="2"/>
-    <col min="22" max="22" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.6640625" style="2"/>
-    <col min="24" max="25" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="7.6640625" style="2"/>
+    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.21875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" style="1"/>
+    <col min="16" max="16" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.6640625" style="1"/>
+    <col min="19" max="19" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" style="1"/>
+    <col min="22" max="22" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.6640625" style="1"/>
+    <col min="24" max="25" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="7.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="94" t="s">
+      <c r="J1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="3">
         <v>81</v>
       </c>
-      <c r="M1" s="92" t="s">
+      <c r="M1" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="8">
+      <c r="N1" s="7">
         <f>N14+I22</f>
         <v>31.684274971513588</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="92" t="s">
+      <c r="M2" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="92" t="s">
+      <c r="J3" s="80" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="92" t="s">
+      <c r="J4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="92" t="s">
+      <c r="M4" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <f>N1*N2</f>
         <v>31.684274971513588</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="J5" s="92" t="s">
+      <c r="J5" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="95"/>
+      <c r="M5" s="83"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="80" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="96" t="s">
+    <row r="9" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="96" t="s">
+      <c r="D9" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="96" t="s">
+      <c r="E9" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="96" t="s">
+      <c r="F9" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="96" t="s">
+      <c r="G9" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="96" t="s">
+      <c r="H9" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="96" t="s">
+      <c r="I9" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="96" t="s">
+      <c r="J9" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="96" t="s">
+      <c r="K9" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="96" t="s">
+      <c r="L9" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="96" t="s">
+      <c r="M9" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="96" t="s">
+      <c r="N9" s="84" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="36">
+      <c r="A10" s="32">
         <v>10</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="35">
         <v>4.2</v>
       </c>
-      <c r="E10" s="84">
+      <c r="E10" s="72">
         <f>J10*K10*L10</f>
         <v>7.9874993217520493E-2</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="63" t="s">
+      <c r="G10" s="32"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="23">
         <f>PI()*50*50/4/1000000</f>
         <v>1.9634954084936209E-3</v>
       </c>
-      <c r="K10" s="85">
+      <c r="K10" s="73">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="18">
         <v>2712</v>
       </c>
-      <c r="M10" s="22">
-        <v>1</v>
-      </c>
-      <c r="N10" s="54">
+      <c r="M10" s="18">
+        <v>1</v>
+      </c>
+      <c r="N10" s="49">
         <f>IF(J10="",D10*M10,D10*J10*K10*L10*M10)</f>
         <v>0.33547497151358602</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="36">
+      <c r="A11" s="32">
         <v>20</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="39">
+      <c r="C11" s="71"/>
+      <c r="D11" s="35">
         <v>15</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="22">
-        <v>1</v>
-      </c>
-      <c r="N11" s="54">
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="18">
+        <v>1</v>
+      </c>
+      <c r="N11" s="49">
         <f>IF(J11="",D11*M11,D11*J11*K11*L11*M11)</f>
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="36">
+      <c r="A12" s="32">
         <v>30</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="39">
+      <c r="C12" s="77"/>
+      <c r="D12" s="35">
         <f>0.18*E12</f>
         <v>2.52</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="32">
         <v>14</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="19">
+      <c r="G12" s="32"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="15">
         <v>0.59</v>
       </c>
-      <c r="L12" s="19"/>
-      <c r="M12" s="22">
-        <v>1</v>
-      </c>
-      <c r="N12" s="54">
+      <c r="L12" s="15"/>
+      <c r="M12" s="18">
+        <v>1</v>
+      </c>
+      <c r="N12" s="49">
         <f>K12*D12</f>
         <v>1.4867999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36">
+      <c r="A13" s="32">
         <v>40</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="35">
         <f>0.032*E13*G13+1.33</f>
         <v>7.6020000000000003</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="32">
         <v>14</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="32">
         <v>14</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="86"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="22">
-        <v>1</v>
-      </c>
-      <c r="N13" s="54">
+      <c r="I13" s="74"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="18">
+        <v>1</v>
+      </c>
+      <c r="N13" s="49">
         <f>M13*D13</f>
         <v>7.6020000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="M14" s="101" t="s">
+    <row r="14" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M14" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="100">
+      <c r="N14" s="88">
         <f>SUM(N10:N13)</f>
         <v>24.424274971513587</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="96" t="s">
+    <row r="16" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="96" t="s">
+      <c r="C16" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="96" t="s">
+      <c r="D16" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="96" t="s">
+      <c r="E16" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="96" t="s">
+      <c r="F16" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="96" t="s">
+      <c r="G16" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="96" t="s">
+      <c r="H16" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="96" t="s">
+      <c r="I16" s="84" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="40">
+      <c r="A17" s="36">
         <v>10</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="39">
+      <c r="C17" s="36"/>
+      <c r="D17" s="35">
         <v>1.3</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="40">
-        <v>1</v>
-      </c>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="54">
+      <c r="F17" s="36">
+        <v>1</v>
+      </c>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="49">
         <f>IF(H17="",D17*F17,D17*F17*H17)</f>
         <v>1.3</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="36">
+      <c r="A18" s="32">
         <v>20</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="39">
+      <c r="C18" s="32"/>
+      <c r="D18" s="35">
         <v>0.04</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="76">
+      <c r="F18" s="64">
         <v>12</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="H18" s="40">
-        <v>1</v>
-      </c>
-      <c r="I18" s="54">
+      <c r="H18" s="36">
+        <v>1</v>
+      </c>
+      <c r="I18" s="49">
         <f>IF(H18="",D18*F18,D18*F18*H18)</f>
         <v>0.48</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="36">
+      <c r="A19" s="32">
         <v>30</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="39">
+      <c r="C19" s="32"/>
+      <c r="D19" s="35">
         <v>0.1</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="76">
+      <c r="F19" s="64">
         <v>50</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="40">
-        <v>1</v>
-      </c>
-      <c r="I19" s="54">
+      <c r="H19" s="36">
+        <v>1</v>
+      </c>
+      <c r="I19" s="49">
         <f>IF(H19="",D19*F19,D19*F19*H19)</f>
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="36">
+      <c r="A20" s="32">
         <v>40</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="35">
         <v>0.35</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="76">
-        <v>1</v>
-      </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="54">
+      <c r="F20" s="64">
+        <v>1</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="49">
         <f>IF(H20="",D20*F20,D20*F20*H20)</f>
         <v>0.35</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="36">
+      <c r="A21" s="32">
         <v>50</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="35">
         <v>0.13</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="76">
-        <v>1</v>
-      </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="54">
+      <c r="F21" s="64">
+        <v>1</v>
+      </c>
+      <c r="G21" s="33"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="49">
         <f>IF(H21="",D21*F21,D21*F21*H21)</f>
         <v>0.13</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H22" s="98" t="s">
+    <row r="22" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="I22" s="97">
+      <c r="I22" s="85">
         <f>SUM(I17:I21)</f>
         <v>7.26</v>
       </c>
@@ -4938,953 +4927,950 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFCCFDCC"/>
+    <tabColor rgb="FFC4D79B"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I38" sqref="A38:I38"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" style="2" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" style="2"/>
-    <col min="16" max="16" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="7.6640625" style="2"/>
-    <col min="19" max="19" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6640625" style="2"/>
-    <col min="22" max="22" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.6640625" style="2"/>
-    <col min="24" max="25" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="7.6640625" style="2"/>
+    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" style="1"/>
+    <col min="16" max="16" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.6640625" style="1"/>
+    <col min="19" max="19" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" style="1"/>
+    <col min="22" max="22" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.6640625" style="1"/>
+    <col min="24" max="25" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="7.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="94" t="s">
+      <c r="J1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="3">
         <v>81</v>
       </c>
-      <c r="M1" s="92" t="s">
+      <c r="M1" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="8">
+      <c r="N1" s="7">
         <f>N15+I30+J36+I40</f>
-        <v>20.357814563839998</v>
+        <v>18.357814563839998</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="102" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="92" t="s">
+      <c r="M2" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="92" t="s">
+      <c r="J3" s="80" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="92" t="s">
+      <c r="J4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="92" t="s">
+      <c r="M4" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <f>N1*N2</f>
-        <v>20.357814563839998</v>
+        <v>18.357814563839998</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="J5" s="92" t="s">
+      <c r="J5" s="80" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="80" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="96" t="s">
+    <row r="9" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="96" t="s">
+      <c r="D9" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="96" t="s">
+      <c r="E9" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96" t="s">
+      <c r="F9" s="84"/>
+      <c r="G9" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="96" t="s">
+      <c r="H9" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="96" t="s">
+      <c r="I9" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="96" t="s">
+      <c r="J9" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="96" t="s">
+      <c r="K9" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="96" t="s">
+      <c r="L9" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="96" t="s">
+      <c r="M9" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="96" t="s">
+      <c r="N9" s="84" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="28">
+      <c r="A10" s="24">
         <v>10</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="25">
         <f>4.2</f>
         <v>4.2</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="52">
         <f>J10*K10*L10</f>
         <v>8.2431782400000042E-2</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="63" t="s">
+      <c r="G10" s="24"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="J10" s="65">
+      <c r="J10" s="55">
         <f>(3.14*22.5*22.5-3.14*21.5*21.5)/1000000</f>
         <v>1.3816000000000007E-4</v>
       </c>
-      <c r="K10" s="68">
+      <c r="K10" s="58">
         <v>0.22</v>
       </c>
-      <c r="L10" s="79">
+      <c r="L10" s="67">
         <v>2712</v>
       </c>
-      <c r="M10" s="80">
-        <v>1</v>
-      </c>
-      <c r="N10" s="81">
+      <c r="M10" s="68">
+        <v>1</v>
+      </c>
+      <c r="N10" s="69">
         <f>IF(J10="",D10*M10,D10*J10*K10*L10*M10)</f>
         <v>0.34621348608000019</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="28">
+      <c r="A11" s="24">
         <v>20</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="25">
         <f>4.2</f>
         <v>4.2</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="52">
         <f>J11*K11*L11</f>
         <v>1.6690732800000014E-2</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="65">
+      <c r="G11" s="24"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="55">
         <f>(3.14*25*25-3.14*24*24)/1000000</f>
         <v>1.5386000000000013E-4</v>
       </c>
-      <c r="K11" s="68">
+      <c r="K11" s="58">
         <v>0.04</v>
       </c>
-      <c r="L11" s="79">
+      <c r="L11" s="67">
         <v>2712</v>
       </c>
-      <c r="M11" s="80">
-        <v>1</v>
-      </c>
-      <c r="N11" s="81">
+      <c r="M11" s="68">
+        <v>1</v>
+      </c>
+      <c r="N11" s="69">
         <f>IF(J11="",D11*M11,D11*J11*K11*L11*M11)</f>
         <v>7.0101077760000061E-2</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="28">
+      <c r="A12" s="24">
         <v>30</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="25">
         <f>4.2</f>
         <v>4.2</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="52">
         <v>1E-3</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="63" t="s">
+      <c r="G12" s="24"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="J12" s="65"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="80">
+      <c r="J12" s="55"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="68">
         <v>2</v>
       </c>
-      <c r="N12" s="81">
+      <c r="N12" s="69">
         <f>M12*D12*E12</f>
         <v>8.4000000000000012E-3</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="28">
+      <c r="A13" s="24">
         <v>40</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="25">
         <f>0.47*E13</f>
         <v>5.64</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="24">
         <v>12</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="24">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H13" s="67" t="s">
+      <c r="H13" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="I13" s="88"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="80">
+      <c r="I13" s="76"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="68">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N13" s="81">
+      <c r="N13" s="69">
         <f>IF(J13="",D13*M13,D13*J13*K13*L13*M13)</f>
         <v>0.78960000000000008</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="28">
+      <c r="A14" s="24">
         <v>40</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="25">
         <f>0.47*E14</f>
         <v>25.849999999999998</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="24">
         <v>55</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="24">
         <v>0.11</v>
       </c>
-      <c r="H14" s="67" t="s">
+      <c r="H14" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="I14" s="88"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="80">
+      <c r="I14" s="76"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="68">
         <v>0.11</v>
       </c>
-      <c r="N14" s="81">
+      <c r="N14" s="69">
         <f>IF(J14="",D14*M14,D14*J14*K14*L14*M14)</f>
         <v>2.8434999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="M15" s="98" t="s">
+    <row r="15" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M15" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="97">
+      <c r="N15" s="85">
         <f>SUM(N10:N14)</f>
         <v>4.0578145638400001</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="96" t="s">
+    <row r="17" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="96" t="s">
+      <c r="C17" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="96" t="s">
+      <c r="D17" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="96" t="s">
+      <c r="E17" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="96" t="s">
+      <c r="F17" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="96" t="s">
+      <c r="G17" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="96" t="s">
+      <c r="H17" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="96" t="s">
+      <c r="I17" s="84" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="40">
+      <c r="A18" s="36">
         <v>10</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="35">
         <v>0.15</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="36">
         <v>8</v>
       </c>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="54">
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="49">
         <f t="shared" ref="I18:I26" si="0">IF(H18="",D18*F18,D18*F18*H18)</f>
         <v>1.2</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="36">
+      <c r="A19" s="32">
         <v>20</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="35">
         <v>1.3</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="36">
-        <v>1</v>
-      </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="54">
+      <c r="F19" s="32">
+        <v>1</v>
+      </c>
+      <c r="G19" s="33"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="49">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="40">
+      <c r="A20" s="36">
         <v>30</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="35">
         <v>0.35</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="40">
-        <v>1</v>
-      </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="54">
+      <c r="F20" s="36">
+        <v>1</v>
+      </c>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="49">
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="36">
+      <c r="A21" s="32">
         <v>40</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="35">
         <v>1.3</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="36">
-        <v>1</v>
-      </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="54">
+      <c r="F21" s="32">
+        <v>1</v>
+      </c>
+      <c r="G21" s="33"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="49">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="40">
+      <c r="A22" s="36">
         <v>50</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="35">
         <v>0.35</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="40">
-        <v>1</v>
-      </c>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="54">
+      <c r="F22" s="36">
+        <v>1</v>
+      </c>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="49">
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="36">
+      <c r="A23" s="32">
         <v>60</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="35">
         <v>0.1</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="40">
-        <v>1</v>
-      </c>
-      <c r="G23" s="40" t="s">
+      <c r="F23" s="36">
+        <v>1</v>
+      </c>
+      <c r="G23" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="H23" s="40">
-        <v>1</v>
-      </c>
-      <c r="I23" s="54">
+      <c r="H23" s="36">
+        <v>1</v>
+      </c>
+      <c r="I23" s="49">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="40">
+      <c r="A24" s="36">
         <v>70</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="39">
+      <c r="D24" s="35">
         <f>1.3</f>
         <v>1.3</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="32">
         <v>2</v>
       </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="54">
+      <c r="G24" s="33"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="49">
         <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="36">
+      <c r="A25" s="32">
         <v>80</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="35">
         <v>0.35</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="40">
+      <c r="F25" s="36">
         <v>2</v>
       </c>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="54">
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="49">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="40">
+      <c r="A26" s="36">
         <v>90</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="39">
+      <c r="D26" s="35">
         <v>0.15</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="40">
+      <c r="F26" s="36">
         <v>10</v>
       </c>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="54">
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="49">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="36">
+      <c r="A27" s="32">
         <v>100</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="74" t="s">
+      <c r="C27" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D27" s="39">
+      <c r="D27" s="35">
         <v>0.06</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="40">
+      <c r="F27" s="36">
         <v>4</v>
       </c>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="54">
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="49">
         <f t="shared" ref="I27:I29" si="1">IF(H27="",D27*F27,D27*F27*H27)</f>
         <v>0.24</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="40">
+      <c r="A28" s="36">
         <v>110</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="74" t="s">
+      <c r="C28" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D28" s="39">
+      <c r="D28" s="35">
         <v>0.19</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="40">
+      <c r="F28" s="36">
         <v>6</v>
       </c>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="54">
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="49">
         <f t="shared" si="1"/>
         <v>1.1400000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="36">
+      <c r="A29" s="32">
         <v>120</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="D29" s="39">
+      <c r="D29" s="35">
         <v>0.5</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="32">
         <v>4</v>
       </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="54">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H30" s="98" t="s">
+      <c r="G29" s="33"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="49"/>
+    </row>
+    <row r="30" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="I30" s="97">
+      <c r="I30" s="85">
         <f>SUM(I18:I29)</f>
-        <v>12.78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="96" t="s">
+        <v>10.78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="96" t="s">
+      <c r="B32" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="96" t="s">
+      <c r="C32" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="96" t="s">
+      <c r="D32" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="96" t="s">
+      <c r="E32" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="96" t="s">
+      <c r="F32" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="96" t="s">
+      <c r="G32" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="H32" s="96" t="s">
+      <c r="H32" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="I32" s="96" t="s">
+      <c r="I32" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="J32" s="96" t="s">
+      <c r="J32" s="84" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="36">
+      <c r="A33" s="32">
         <v>10</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="39">
+      <c r="D33" s="35">
         <f>0.004*E33+0.5</f>
         <v>0.54</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="32">
         <v>10</v>
       </c>
-      <c r="F33" s="52" t="s">
+      <c r="F33" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="36"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="82">
+      <c r="G33" s="32"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="70">
         <v>2</v>
       </c>
-      <c r="J33" s="54">
+      <c r="J33" s="49">
         <f>I33*D33</f>
         <v>1.08</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="36">
+      <c r="A34" s="32">
         <v>20</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="D34" s="39">
+      <c r="D34" s="35">
         <f>0.004*E34+0.5</f>
         <v>0.72</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="32">
         <v>55</v>
       </c>
-      <c r="F34" s="52" t="s">
+      <c r="F34" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="G34" s="36"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="82">
-        <v>1</v>
-      </c>
-      <c r="J34" s="54">
+      <c r="G34" s="32"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="70">
+        <v>1</v>
+      </c>
+      <c r="J34" s="49">
         <f>I34*D34</f>
         <v>0.72</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="36">
+      <c r="A35" s="32">
         <v>30</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="D35" s="39">
+      <c r="D35" s="35">
         <f>0.004*E35+0.5</f>
         <v>0.72</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="32">
         <v>55</v>
       </c>
-      <c r="F35" s="52" t="s">
+      <c r="F35" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="G35" s="36"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="82">
-        <v>1</v>
-      </c>
-      <c r="J35" s="54">
+      <c r="G35" s="32"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="70">
+        <v>1</v>
+      </c>
+      <c r="J35" s="49">
         <f>I35*D35</f>
         <v>0.72</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="I36" s="98" t="s">
+    <row r="36" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I36" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="J36" s="97">
+      <c r="J36" s="85">
         <f>SUM(J33:J35)</f>
         <v>2.52</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H37" s="58"/>
-      <c r="I37" s="77"/>
-    </row>
-    <row r="38" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="96" t="s">
+      <c r="H37" s="50"/>
+      <c r="I37" s="65"/>
+    </row>
+    <row r="38" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="96" t="s">
+      <c r="B38" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="96" t="s">
+      <c r="C38" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="96" t="s">
+      <c r="D38" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="96" t="s">
+      <c r="E38" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="96" t="s">
+      <c r="F38" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="96" t="s">
+      <c r="G38" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="H38" s="96" t="s">
+      <c r="H38" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="I38" s="96" t="s">
+      <c r="I38" s="84" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="36">
+      <c r="A39" s="32">
         <v>10</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="42">
+      <c r="C39" s="32"/>
+      <c r="D39" s="38">
         <v>500</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="E39" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F39" s="32">
         <v>6</v>
       </c>
-      <c r="G39" s="36">
+      <c r="G39" s="32">
         <v>3000</v>
       </c>
-      <c r="H39" s="36">
-        <v>1</v>
-      </c>
-      <c r="I39" s="54">
+      <c r="H39" s="32">
+        <v>1</v>
+      </c>
+      <c r="I39" s="49">
         <f>D39*F39/G39*H39</f>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H40" s="98" t="s">
+    <row r="40" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H40" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="I40" s="103">
+      <c r="I40" s="91">
         <f>SUM(I39:I39)</f>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H41" s="58"/>
-      <c r="I41" s="77"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="65"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5904,335 +5890,335 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFCCFFCC"/>
+    <tabColor rgb="FFC4D79B"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="49" workbookViewId="0">
-      <selection activeCell="I13" sqref="A13:I13"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="49" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" style="2"/>
-    <col min="16" max="16" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="7.6640625" style="2"/>
-    <col min="19" max="19" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6640625" style="2"/>
-    <col min="22" max="22" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.6640625" style="2"/>
-    <col min="24" max="25" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="7.6640625" style="2"/>
+    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" style="1"/>
+    <col min="16" max="16" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.6640625" style="1"/>
+    <col min="19" max="19" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" style="1"/>
+    <col min="22" max="22" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.6640625" style="1"/>
+    <col min="24" max="25" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="7.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="94" t="s">
+      <c r="J1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="3">
         <v>81</v>
       </c>
-      <c r="M1" s="92" t="s">
+      <c r="M1" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="8">
+      <c r="N1" s="7">
         <f>N11+I16</f>
         <v>1.738382125</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="92" t="s">
+      <c r="M2" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="92" t="s">
+      <c r="J3" s="80" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="92" t="s">
+      <c r="J4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="92" t="s">
+      <c r="M4" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <f>N1*N2</f>
         <v>3.47676425</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="J5" s="92" t="s">
+      <c r="J5" s="80" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="80" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="96" t="s">
+    <row r="9" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="96" t="s">
+      <c r="D9" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="96" t="s">
+      <c r="E9" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96" t="s">
+      <c r="F9" s="84"/>
+      <c r="G9" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="96" t="s">
+      <c r="H9" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="96" t="s">
+      <c r="I9" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="96" t="s">
+      <c r="J9" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="96" t="s">
+      <c r="K9" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="96" t="s">
+      <c r="L9" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="96" t="s">
+      <c r="M9" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="96" t="s">
+      <c r="N9" s="84" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="28">
+      <c r="A10" s="24">
         <v>10</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="29">
+      <c r="C10" s="39"/>
+      <c r="D10" s="25">
         <v>2.25</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="52">
         <f>J10*K10*L10</f>
         <v>1.4836500000000001E-2</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="63" t="s">
+      <c r="G10" s="24"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="J10" s="65">
+      <c r="J10" s="55">
         <f>30*42/1000000</f>
         <v>1.2600000000000001E-3</v>
       </c>
-      <c r="K10" s="68">
+      <c r="K10" s="58">
         <f>1.5/1000</f>
         <v>1.5E-3</v>
       </c>
-      <c r="L10" s="79">
+      <c r="L10" s="67">
         <v>7850</v>
       </c>
-      <c r="M10" s="80">
-        <v>1</v>
-      </c>
-      <c r="N10" s="81">
+      <c r="M10" s="68">
+        <v>1</v>
+      </c>
+      <c r="N10" s="69">
         <f>IF(J10="",D10*M10,D10*J10*K10*L10*M10)</f>
         <v>3.3382125000000006E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="M11" s="98" t="s">
+    <row r="11" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="97">
+      <c r="N11" s="85">
         <f>SUM(N10:N10)</f>
         <v>3.3382125000000006E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="96" t="s">
+    <row r="13" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="96" t="s">
+      <c r="D13" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="96" t="s">
+      <c r="E13" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="96" t="s">
+      <c r="F13" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="96" t="s">
+      <c r="G13" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="96" t="s">
+      <c r="H13" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="96" t="s">
+      <c r="I13" s="84" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="40">
+      <c r="A14" s="36">
         <v>10</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="39">
+      <c r="C14" s="36"/>
+      <c r="D14" s="35">
         <v>1.3</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="40">
-        <v>1</v>
-      </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40">
-        <v>1</v>
-      </c>
-      <c r="I14" s="81">
+      <c r="F14" s="36">
+        <v>1</v>
+      </c>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36">
+        <v>1</v>
+      </c>
+      <c r="I14" s="69">
         <f>IF(H14="",D14*F14,D14*F14*H14)</f>
         <v>1.3</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="36">
+      <c r="A15" s="32">
         <v>20</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="39">
+      <c r="C15" s="32"/>
+      <c r="D15" s="35">
         <v>0.01</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="32">
         <v>13.5</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="36">
         <v>3</v>
       </c>
-      <c r="I15" s="81">
+      <c r="I15" s="69">
         <f>IF(H15="",D15*F15,D15*F15*H15)</f>
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H16" s="98" t="s">
+    <row r="16" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="97">
+      <c r="I16" s="85">
         <f>SUM(I14:I15)</f>
         <v>1.7050000000000001</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H17" s="58"/>
-      <c r="I17" s="77"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="65"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6252,17 +6238,19 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFCCFFCC"/>
+    <tabColor rgb="FFC4D79B"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="49" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="49" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="66" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6283,335 +6271,335 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFCCFFCC"/>
+    <tabColor rgb="FFC4D79B"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="49" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" style="2"/>
-    <col min="16" max="16" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="7.6640625" style="2"/>
-    <col min="19" max="19" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6640625" style="2"/>
-    <col min="22" max="22" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.6640625" style="2"/>
-    <col min="24" max="25" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="7.6640625" style="2"/>
+    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" style="1"/>
+    <col min="16" max="16" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.6640625" style="1"/>
+    <col min="19" max="19" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" style="1"/>
+    <col min="22" max="22" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.6640625" style="1"/>
+    <col min="24" max="25" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="7.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="3">
         <v>81</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="8">
+      <c r="N1" s="7">
         <f>N11+I16</f>
         <v>1.884868</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="80" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="56" t="s">
+      <c r="J4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="56" t="s">
+      <c r="M4" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <f>N1*N2</f>
         <v>3.769736</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="J5" s="56" t="s">
+      <c r="J5" s="80" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="80" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="60" t="s">
+    <row r="9" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60" t="s">
+      <c r="F9" s="84"/>
+      <c r="G9" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="60" t="s">
+      <c r="H9" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="60" t="s">
+      <c r="J9" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="60" t="s">
+      <c r="K9" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="60" t="s">
+      <c r="L9" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="60" t="s">
+      <c r="M9" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="60" t="s">
+      <c r="N9" s="84" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="28">
+      <c r="A10" s="24">
         <v>10</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="29">
+      <c r="C10" s="39"/>
+      <c r="D10" s="25">
         <v>2.25</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="52">
         <f>J10*K10*L10</f>
         <v>2.2608000000000003E-2</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="63" t="s">
+      <c r="G10" s="24"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="J10" s="65">
+      <c r="J10" s="55">
         <f>48*30/1000000</f>
         <v>1.4400000000000001E-3</v>
       </c>
-      <c r="K10" s="68">
+      <c r="K10" s="58">
         <f>2/1000</f>
         <v>2E-3</v>
       </c>
-      <c r="L10" s="79">
+      <c r="L10" s="67">
         <v>7850</v>
       </c>
-      <c r="M10" s="80">
-        <v>1</v>
-      </c>
-      <c r="N10" s="81">
+      <c r="M10" s="68">
+        <v>1</v>
+      </c>
+      <c r="N10" s="69">
         <f>IF(J10="",D10*M10,D10*J10*K10*L10*M10)</f>
         <v>5.0868000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="M11" s="72" t="s">
+    <row r="11" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="73">
+      <c r="N11" s="85">
         <f>SUM(N10:N10)</f>
         <v>5.0868000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="60" t="s">
+    <row r="13" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="60" t="s">
+      <c r="H13" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="60" t="s">
+      <c r="I13" s="84" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="40">
+      <c r="A14" s="36">
         <v>10</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="39">
+      <c r="C14" s="36"/>
+      <c r="D14" s="35">
         <v>1.3</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="40">
-        <v>1</v>
-      </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40">
-        <v>1</v>
-      </c>
-      <c r="I14" s="81">
+      <c r="F14" s="36">
+        <v>1</v>
+      </c>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36">
+        <v>1</v>
+      </c>
+      <c r="I14" s="69">
         <f>IF(H14="",D14*F14,D14*F14*H14)</f>
         <v>1.3</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="36">
+      <c r="A15" s="32">
         <v>20</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="39">
+      <c r="C15" s="32"/>
+      <c r="D15" s="35">
         <v>0.01</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="32">
         <v>17.8</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="36">
         <v>3</v>
       </c>
-      <c r="I15" s="81">
+      <c r="I15" s="69">
         <f>IF(H15="",D15*F15,D15*F15*H15)</f>
         <v>0.53400000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H16" s="72" t="s">
+    <row r="16" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="73">
+      <c r="I16" s="85">
         <f>SUM(I14:I15)</f>
         <v>1.8340000000000001</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H17" s="58"/>
-      <c r="I17" s="77"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="65"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6631,17 +6619,19 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFCCFFCC"/>
+    <tabColor rgb="FFC4D79B"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="49" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="49" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="66" t="s">
         <v>140</v>
       </c>
     </row>
